--- a/src/attr.xlsx
+++ b/src/attr.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CDD2F7-F279-4423-9D34-E752D3F31BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="507">
   <si>
     <t>ID</t>
   </si>
@@ -1579,7 +1588,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1604,12 +1613,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1626,11 +1641,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1907,20 +1928,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z537"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="A537" sqref="A537"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="K546" sqref="K546"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2160,7 +2181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10010</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10011</v>
       </c>
@@ -2200,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10012</v>
       </c>
@@ -2220,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10013</v>
       </c>
@@ -2240,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10014</v>
       </c>
@@ -2260,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10015</v>
       </c>
@@ -2280,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10020</v>
       </c>
@@ -2294,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10021</v>
       </c>
@@ -2308,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10022</v>
       </c>
@@ -2322,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10023</v>
       </c>
@@ -2336,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10024</v>
       </c>
@@ -2350,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10025</v>
       </c>
@@ -2364,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10030</v>
       </c>
@@ -2384,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10031</v>
       </c>
@@ -2404,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10032</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10033</v>
       </c>
@@ -2444,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10034</v>
       </c>
@@ -2464,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10035</v>
       </c>
@@ -2484,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10040</v>
       </c>
@@ -2498,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10041</v>
       </c>
@@ -2512,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10042</v>
       </c>
@@ -2526,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10043</v>
       </c>
@@ -2540,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10044</v>
       </c>
@@ -2554,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10045</v>
       </c>
@@ -2568,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10050</v>
       </c>
@@ -2582,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10051</v>
       </c>
@@ -2596,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10052</v>
       </c>
@@ -2610,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10053</v>
       </c>
@@ -2624,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10054</v>
       </c>
@@ -2638,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10055</v>
       </c>
@@ -2652,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10060</v>
       </c>
@@ -2666,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10061</v>
       </c>
@@ -2680,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10062</v>
       </c>
@@ -2694,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10063</v>
       </c>
@@ -2708,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10064</v>
       </c>
@@ -2722,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10065</v>
       </c>
@@ -2736,7 +2757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10110</v>
       </c>
@@ -2756,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10111</v>
       </c>
@@ -2776,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10112</v>
       </c>
@@ -2796,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10113</v>
       </c>
@@ -2816,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10114</v>
       </c>
@@ -2836,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10115</v>
       </c>
@@ -2856,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10120</v>
       </c>
@@ -2870,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10121</v>
       </c>
@@ -2884,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10122</v>
       </c>
@@ -2898,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10123</v>
       </c>
@@ -2912,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10124</v>
       </c>
@@ -2926,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10125</v>
       </c>
@@ -2940,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10130</v>
       </c>
@@ -2960,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10131</v>
       </c>
@@ -2980,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10132</v>
       </c>
@@ -3000,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10133</v>
       </c>
@@ -3020,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10134</v>
       </c>
@@ -3040,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10135</v>
       </c>
@@ -3060,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10140</v>
       </c>
@@ -3074,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10141</v>
       </c>
@@ -3088,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10142</v>
       </c>
@@ -3102,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10143</v>
       </c>
@@ -3116,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10144</v>
       </c>
@@ -3130,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10145</v>
       </c>
@@ -3144,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10150</v>
       </c>
@@ -3158,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10151</v>
       </c>
@@ -3172,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10152</v>
       </c>
@@ -3186,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10153</v>
       </c>
@@ -3200,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10154</v>
       </c>
@@ -3214,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10155</v>
       </c>
@@ -3228,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10160</v>
       </c>
@@ -3242,7 +3263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10161</v>
       </c>
@@ -3256,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10162</v>
       </c>
@@ -3270,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10163</v>
       </c>
@@ -3284,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10164</v>
       </c>
@@ -3298,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10165</v>
       </c>
@@ -3312,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10210</v>
       </c>
@@ -3332,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10211</v>
       </c>
@@ -3352,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10212</v>
       </c>
@@ -3372,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10213</v>
       </c>
@@ -3392,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10214</v>
       </c>
@@ -3412,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10215</v>
       </c>
@@ -3432,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10220</v>
       </c>
@@ -3446,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10221</v>
       </c>
@@ -3460,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10222</v>
       </c>
@@ -3474,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10223</v>
       </c>
@@ -3488,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10224</v>
       </c>
@@ -3502,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10225</v>
       </c>
@@ -3516,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10230</v>
       </c>
@@ -3536,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10231</v>
       </c>
@@ -3556,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10232</v>
       </c>
@@ -3576,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10233</v>
       </c>
@@ -3596,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10234</v>
       </c>
@@ -3616,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10235</v>
       </c>
@@ -3636,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10240</v>
       </c>
@@ -3650,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10241</v>
       </c>
@@ -3664,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10242</v>
       </c>
@@ -3678,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10243</v>
       </c>
@@ -3692,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10244</v>
       </c>
@@ -3706,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10245</v>
       </c>
@@ -3720,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10250</v>
       </c>
@@ -3734,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10251</v>
       </c>
@@ -3748,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10252</v>
       </c>
@@ -3762,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10253</v>
       </c>
@@ -3776,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10254</v>
       </c>
@@ -3790,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10255</v>
       </c>
@@ -3804,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10260</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10261</v>
       </c>
@@ -3832,7 +3853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10262</v>
       </c>
@@ -3846,7 +3867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10263</v>
       </c>
@@ -3860,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10264</v>
       </c>
@@ -3874,7 +3895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10265</v>
       </c>
@@ -3888,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10310</v>
       </c>
@@ -3908,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10311</v>
       </c>
@@ -3928,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10312</v>
       </c>
@@ -3948,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10313</v>
       </c>
@@ -3968,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10314</v>
       </c>
@@ -3988,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10315</v>
       </c>
@@ -4008,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10320</v>
       </c>
@@ -4022,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10321</v>
       </c>
@@ -4036,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10322</v>
       </c>
@@ -4050,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10323</v>
       </c>
@@ -4064,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10324</v>
       </c>
@@ -4078,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10325</v>
       </c>
@@ -4092,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10330</v>
       </c>
@@ -4112,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10331</v>
       </c>
@@ -4132,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10332</v>
       </c>
@@ -4152,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10333</v>
       </c>
@@ -4172,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10334</v>
       </c>
@@ -4192,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10335</v>
       </c>
@@ -4212,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>10340</v>
       </c>
@@ -4226,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10341</v>
       </c>
@@ -4240,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>10342</v>
       </c>
@@ -4254,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>10343</v>
       </c>
@@ -4268,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>10344</v>
       </c>
@@ -4282,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>10345</v>
       </c>
@@ -4296,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10350</v>
       </c>
@@ -4310,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10351</v>
       </c>
@@ -4324,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10352</v>
       </c>
@@ -4338,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>10353</v>
       </c>
@@ -4352,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10354</v>
       </c>
@@ -4366,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10355</v>
       </c>
@@ -4380,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>10360</v>
       </c>
@@ -4394,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10361</v>
       </c>
@@ -4408,7 +4429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10362</v>
       </c>
@@ -4422,7 +4443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10363</v>
       </c>
@@ -4436,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10364</v>
       </c>
@@ -4450,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>10365</v>
       </c>
@@ -4464,7 +4485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10410</v>
       </c>
@@ -4484,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10411</v>
       </c>
@@ -4504,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10412</v>
       </c>
@@ -4524,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10413</v>
       </c>
@@ -4544,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10414</v>
       </c>
@@ -4564,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10415</v>
       </c>
@@ -4584,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10420</v>
       </c>
@@ -4598,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10421</v>
       </c>
@@ -4612,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10422</v>
       </c>
@@ -4626,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10423</v>
       </c>
@@ -4640,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>10424</v>
       </c>
@@ -4654,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>10425</v>
       </c>
@@ -4668,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10430</v>
       </c>
@@ -4688,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10431</v>
       </c>
@@ -4708,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>10432</v>
       </c>
@@ -4728,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10433</v>
       </c>
@@ -4748,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10434</v>
       </c>
@@ -4768,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10435</v>
       </c>
@@ -4788,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10440</v>
       </c>
@@ -4802,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10441</v>
       </c>
@@ -4816,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10442</v>
       </c>
@@ -4830,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10443</v>
       </c>
@@ -4844,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10444</v>
       </c>
@@ -4858,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10445</v>
       </c>
@@ -4872,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10450</v>
       </c>
@@ -4886,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10451</v>
       </c>
@@ -4900,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10452</v>
       </c>
@@ -4914,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10453</v>
       </c>
@@ -4928,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10454</v>
       </c>
@@ -4942,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10455</v>
       </c>
@@ -4956,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10460</v>
       </c>
@@ -4970,7 +4991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>10461</v>
       </c>
@@ -4984,7 +5005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10462</v>
       </c>
@@ -4998,7 +5019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10463</v>
       </c>
@@ -5012,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>10464</v>
       </c>
@@ -5026,7 +5047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>10465</v>
       </c>
@@ -5040,7 +5061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>10510</v>
       </c>
@@ -5060,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>10511</v>
       </c>
@@ -5080,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>10512</v>
       </c>
@@ -5100,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10513</v>
       </c>
@@ -5120,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>10514</v>
       </c>
@@ -5140,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>10515</v>
       </c>
@@ -5160,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>10520</v>
       </c>
@@ -5174,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>10521</v>
       </c>
@@ -5188,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10522</v>
       </c>
@@ -5202,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10523</v>
       </c>
@@ -5216,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10524</v>
       </c>
@@ -5230,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10525</v>
       </c>
@@ -5244,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>10530</v>
       </c>
@@ -5264,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10531</v>
       </c>
@@ -5284,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>10532</v>
       </c>
@@ -5304,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>10533</v>
       </c>
@@ -5324,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>10534</v>
       </c>
@@ -5344,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>10535</v>
       </c>
@@ -5364,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>10540</v>
       </c>
@@ -5378,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>10541</v>
       </c>
@@ -5392,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>10542</v>
       </c>
@@ -5406,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>10543</v>
       </c>
@@ -5420,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>10544</v>
       </c>
@@ -5434,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>10545</v>
       </c>
@@ -5448,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>10550</v>
       </c>
@@ -5462,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>10551</v>
       </c>
@@ -5476,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>10552</v>
       </c>
@@ -5490,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>10553</v>
       </c>
@@ -5504,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>10554</v>
       </c>
@@ -5518,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>10555</v>
       </c>
@@ -5532,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>10560</v>
       </c>
@@ -5546,7 +5567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>10561</v>
       </c>
@@ -5560,7 +5581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>10562</v>
       </c>
@@ -5574,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>10563</v>
       </c>
@@ -5588,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>10564</v>
       </c>
@@ -5602,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>10565</v>
       </c>
@@ -5616,7 +5637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10610</v>
       </c>
@@ -5636,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10611</v>
       </c>
@@ -5656,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>10612</v>
       </c>
@@ -5676,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10613</v>
       </c>
@@ -5696,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10614</v>
       </c>
@@ -5716,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>10615</v>
       </c>
@@ -5736,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>10620</v>
       </c>
@@ -5750,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>10621</v>
       </c>
@@ -5764,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>10622</v>
       </c>
@@ -5778,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>10623</v>
       </c>
@@ -5792,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>10624</v>
       </c>
@@ -5806,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>10625</v>
       </c>
@@ -5820,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>10630</v>
       </c>
@@ -5840,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10631</v>
       </c>
@@ -5860,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>10632</v>
       </c>
@@ -5880,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>10633</v>
       </c>
@@ -5900,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>10634</v>
       </c>
@@ -5920,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>10635</v>
       </c>
@@ -5940,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>10640</v>
       </c>
@@ -5954,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>10641</v>
       </c>
@@ -5968,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>10642</v>
       </c>
@@ -5982,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>10643</v>
       </c>
@@ -5996,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>10644</v>
       </c>
@@ -6010,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>10645</v>
       </c>
@@ -6024,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>10650</v>
       </c>
@@ -6038,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>10651</v>
       </c>
@@ -6052,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>10652</v>
       </c>
@@ -6066,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>10653</v>
       </c>
@@ -6080,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>10654</v>
       </c>
@@ -6094,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>10655</v>
       </c>
@@ -6108,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>10660</v>
       </c>
@@ -6122,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>10661</v>
       </c>
@@ -6136,7 +6157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>10662</v>
       </c>
@@ -6150,7 +6171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>10663</v>
       </c>
@@ -6164,7 +6185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10664</v>
       </c>
@@ -6178,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>10665</v>
       </c>
@@ -6192,7 +6213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>10710</v>
       </c>
@@ -6212,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>10711</v>
       </c>
@@ -6232,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>10712</v>
       </c>
@@ -6252,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>10713</v>
       </c>
@@ -6272,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>10714</v>
       </c>
@@ -6292,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>10715</v>
       </c>
@@ -6312,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>10720</v>
       </c>
@@ -6326,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>10721</v>
       </c>
@@ -6340,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>10722</v>
       </c>
@@ -6354,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>10723</v>
       </c>
@@ -6368,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>10724</v>
       </c>
@@ -6382,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>10725</v>
       </c>
@@ -6396,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>10730</v>
       </c>
@@ -6416,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>10731</v>
       </c>
@@ -6436,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>10732</v>
       </c>
@@ -6456,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>10733</v>
       </c>
@@ -6476,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>10734</v>
       </c>
@@ -6496,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>10735</v>
       </c>
@@ -6516,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>10740</v>
       </c>
@@ -6530,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>10741</v>
       </c>
@@ -6544,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>10742</v>
       </c>
@@ -6558,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>10743</v>
       </c>
@@ -6572,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>10744</v>
       </c>
@@ -6586,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>10745</v>
       </c>
@@ -6600,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10750</v>
       </c>
@@ -6614,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10751</v>
       </c>
@@ -6628,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>10752</v>
       </c>
@@ -6642,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>10753</v>
       </c>
@@ -6656,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>10754</v>
       </c>
@@ -6670,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>10755</v>
       </c>
@@ -6684,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>10760</v>
       </c>
@@ -6698,7 +6719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>10761</v>
       </c>
@@ -6712,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>10762</v>
       </c>
@@ -6726,7 +6747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>10763</v>
       </c>
@@ -6740,7 +6761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>10764</v>
       </c>
@@ -6754,7 +6775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>10765</v>
       </c>
@@ -6768,7 +6789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>10810</v>
       </c>
@@ -6788,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>10811</v>
       </c>
@@ -6808,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>10812</v>
       </c>
@@ -6828,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>10813</v>
       </c>
@@ -6848,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>10814</v>
       </c>
@@ -6868,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>10815</v>
       </c>
@@ -6888,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>10820</v>
       </c>
@@ -6902,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>10821</v>
       </c>
@@ -6916,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10822</v>
       </c>
@@ -6930,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>10823</v>
       </c>
@@ -6944,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>10824</v>
       </c>
@@ -6958,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>10825</v>
       </c>
@@ -6972,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>10830</v>
       </c>
@@ -6992,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>10831</v>
       </c>
@@ -7012,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>10832</v>
       </c>
@@ -7032,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>10833</v>
       </c>
@@ -7052,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>10834</v>
       </c>
@@ -7072,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>10835</v>
       </c>
@@ -7092,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>10840</v>
       </c>
@@ -7106,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>10841</v>
       </c>
@@ -7120,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>10842</v>
       </c>
@@ -7134,7 +7155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>10843</v>
       </c>
@@ -7148,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>10844</v>
       </c>
@@ -7162,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>10845</v>
       </c>
@@ -7176,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>10850</v>
       </c>
@@ -7190,7 +7211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>10851</v>
       </c>
@@ -7204,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>10852</v>
       </c>
@@ -7218,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>10853</v>
       </c>
@@ -7232,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>10854</v>
       </c>
@@ -7246,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>10855</v>
       </c>
@@ -7260,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>10860</v>
       </c>
@@ -7274,7 +7295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>10861</v>
       </c>
@@ -7288,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>10862</v>
       </c>
@@ -7302,7 +7323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>10863</v>
       </c>
@@ -7316,7 +7337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>10864</v>
       </c>
@@ -7330,7 +7351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>10865</v>
       </c>
@@ -7344,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>10910</v>
       </c>
@@ -7364,7 +7385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>10911</v>
       </c>
@@ -7384,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>10912</v>
       </c>
@@ -7404,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>10913</v>
       </c>
@@ -7424,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>10914</v>
       </c>
@@ -7444,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>10915</v>
       </c>
@@ -7464,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>10920</v>
       </c>
@@ -7478,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>10921</v>
       </c>
@@ -7492,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>10922</v>
       </c>
@@ -7506,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>10923</v>
       </c>
@@ -7520,7 +7541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>10924</v>
       </c>
@@ -7534,7 +7555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>10925</v>
       </c>
@@ -7548,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>10930</v>
       </c>
@@ -7568,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>10931</v>
       </c>
@@ -7588,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>10932</v>
       </c>
@@ -7608,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>10933</v>
       </c>
@@ -7628,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>10934</v>
       </c>
@@ -7648,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>10935</v>
       </c>
@@ -7668,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>10940</v>
       </c>
@@ -7682,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>10941</v>
       </c>
@@ -7696,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>10942</v>
       </c>
@@ -7710,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>10943</v>
       </c>
@@ -7724,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>10944</v>
       </c>
@@ -7738,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>10945</v>
       </c>
@@ -7752,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>10950</v>
       </c>
@@ -7766,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>10951</v>
       </c>
@@ -7780,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>10952</v>
       </c>
@@ -7794,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>10953</v>
       </c>
@@ -7808,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>10954</v>
       </c>
@@ -7822,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>10955</v>
       </c>
@@ -7836,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>10960</v>
       </c>
@@ -7850,7 +7871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>10961</v>
       </c>
@@ -7864,7 +7885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>10962</v>
       </c>
@@ -7878,7 +7899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>10963</v>
       </c>
@@ -7892,7 +7913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>10964</v>
       </c>
@@ -7906,7 +7927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>10965</v>
       </c>
@@ -7920,7 +7941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>11010</v>
       </c>
@@ -7940,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>11011</v>
       </c>
@@ -7960,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>11012</v>
       </c>
@@ -7980,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>11013</v>
       </c>
@@ -8000,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>11014</v>
       </c>
@@ -8020,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>11015</v>
       </c>
@@ -8040,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>11020</v>
       </c>
@@ -8054,7 +8075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>11021</v>
       </c>
@@ -8068,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>11022</v>
       </c>
@@ -8082,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>11023</v>
       </c>
@@ -8096,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>11024</v>
       </c>
@@ -8110,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>11025</v>
       </c>
@@ -8124,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>11030</v>
       </c>
@@ -8144,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>11031</v>
       </c>
@@ -8164,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11032</v>
       </c>
@@ -8184,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>11033</v>
       </c>
@@ -8204,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>11034</v>
       </c>
@@ -8224,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>11035</v>
       </c>
@@ -8244,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>11040</v>
       </c>
@@ -8258,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>11041</v>
       </c>
@@ -8272,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>11042</v>
       </c>
@@ -8286,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>11043</v>
       </c>
@@ -8300,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>11044</v>
       </c>
@@ -8314,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>11045</v>
       </c>
@@ -8328,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>11050</v>
       </c>
@@ -8342,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>11051</v>
       </c>
@@ -8356,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>11052</v>
       </c>
@@ -8370,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>11053</v>
       </c>
@@ -8384,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>11054</v>
       </c>
@@ -8398,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>11055</v>
       </c>
@@ -8412,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>11060</v>
       </c>
@@ -8426,7 +8447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>11061</v>
       </c>
@@ -8440,7 +8461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>11062</v>
       </c>
@@ -8454,7 +8475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>11063</v>
       </c>
@@ -8468,7 +8489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>11064</v>
       </c>
@@ -8482,7 +8503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>11065</v>
       </c>
@@ -8496,7 +8517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>11110</v>
       </c>
@@ -8516,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>11111</v>
       </c>
@@ -8536,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>11112</v>
       </c>
@@ -8556,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>11113</v>
       </c>
@@ -8576,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>11114</v>
       </c>
@@ -8596,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>11115</v>
       </c>
@@ -8616,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>11120</v>
       </c>
@@ -8630,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>11121</v>
       </c>
@@ -8644,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>11122</v>
       </c>
@@ -8658,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>11123</v>
       </c>
@@ -8672,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>11124</v>
       </c>
@@ -8686,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>11125</v>
       </c>
@@ -8700,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>11130</v>
       </c>
@@ -8720,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>11131</v>
       </c>
@@ -8740,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>11132</v>
       </c>
@@ -8760,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>11133</v>
       </c>
@@ -8780,7 +8801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>11134</v>
       </c>
@@ -8800,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>11135</v>
       </c>
@@ -8820,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>11140</v>
       </c>
@@ -8834,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>11141</v>
       </c>
@@ -8848,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>11142</v>
       </c>
@@ -8862,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>11143</v>
       </c>
@@ -8876,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>11144</v>
       </c>
@@ -8890,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>11145</v>
       </c>
@@ -8904,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>11150</v>
       </c>
@@ -8918,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>11151</v>
       </c>
@@ -8932,7 +8953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>11152</v>
       </c>
@@ -8946,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>11153</v>
       </c>
@@ -8960,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>11154</v>
       </c>
@@ -8974,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>11155</v>
       </c>
@@ -8988,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>11160</v>
       </c>
@@ -9002,7 +9023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>11161</v>
       </c>
@@ -9016,7 +9037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>11162</v>
       </c>
@@ -9030,7 +9051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>11163</v>
       </c>
@@ -9044,7 +9065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>11164</v>
       </c>
@@ -9058,7 +9079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>11165</v>
       </c>
@@ -9072,47 +9093,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A436">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A437">
         <v>50001</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C436">
-        <v>10</v>
-      </c>
-      <c r="D436">
-        <v>1</v>
-      </c>
-      <c r="E436">
-        <v>15</v>
-      </c>
-      <c r="F436">
-        <v>1</v>
-      </c>
-      <c r="G436">
-        <v>0</v>
-      </c>
-      <c r="H436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>50002</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="C437">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D437">
         <v>1</v>
       </c>
       <c r="E437">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F437">
         <v>1</v>
@@ -9124,21 +9119,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C438">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D438">
         <v>1</v>
       </c>
       <c r="E438">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F438">
         <v>1</v>
@@ -9150,21 +9145,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C439">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D439">
         <v>1</v>
       </c>
       <c r="E439">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F439">
         <v>1</v>
@@ -9176,21 +9171,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>50005</v>
+        <v>50004</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C440">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D440">
         <v>1</v>
       </c>
       <c r="E440">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F440">
         <v>1</v>
@@ -9202,21 +9197,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>50006</v>
+        <v>50005</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C441">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D441">
         <v>1</v>
       </c>
       <c r="E441">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F441">
         <v>1</v>
@@ -9228,47 +9223,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="442" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>50006</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C442" s="2">
+        <v>40</v>
+      </c>
+      <c r="D442" s="2">
+        <v>1</v>
+      </c>
+      <c r="E442" s="2">
+        <v>2</v>
+      </c>
+      <c r="F442" s="2">
+        <v>1</v>
+      </c>
+      <c r="G442" s="2">
+        <v>0</v>
+      </c>
+      <c r="H442" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A443">
         <v>50007</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B443" t="s">
         <v>485</v>
       </c>
-      <c r="C442">
-        <v>40</v>
-      </c>
-      <c r="D442">
-        <v>1</v>
-      </c>
-      <c r="E442">
-        <v>15</v>
-      </c>
-      <c r="F442">
-        <v>1</v>
-      </c>
-      <c r="G442">
-        <v>0</v>
-      </c>
-      <c r="H442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>50008</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C443">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D443">
         <v>1</v>
       </c>
       <c r="E443">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F443">
         <v>1</v>
@@ -9280,21 +9275,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>50009</v>
-      </c>
-      <c r="B444" t="s">
-        <v>480</v>
+        <v>50008</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="C444">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D444">
         <v>1</v>
       </c>
       <c r="E444">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F444">
         <v>1</v>
@@ -9306,21 +9301,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>50010</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>496</v>
+        <v>50009</v>
+      </c>
+      <c r="B445" t="s">
+        <v>480</v>
       </c>
       <c r="C445">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D445">
         <v>1</v>
       </c>
       <c r="E445">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F445">
         <v>1</v>
@@ -9332,21 +9327,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>50011</v>
+        <v>50010</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C446">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D446">
         <v>1</v>
       </c>
       <c r="E446">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F446">
         <v>1</v>
@@ -9358,47 +9353,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A447">
+    <row r="447" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>50011</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C447" s="2">
+        <v>60</v>
+      </c>
+      <c r="D447" s="2">
+        <v>1</v>
+      </c>
+      <c r="E447" s="2">
+        <v>3</v>
+      </c>
+      <c r="F447" s="2">
+        <v>1</v>
+      </c>
+      <c r="G447" s="2">
+        <v>0</v>
+      </c>
+      <c r="H447" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A448">
         <v>50012</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B448" t="s">
         <v>497</v>
       </c>
-      <c r="C447">
-        <v>65</v>
-      </c>
-      <c r="D447">
-        <v>1</v>
-      </c>
-      <c r="E447">
-        <v>30</v>
-      </c>
-      <c r="F447">
-        <v>1</v>
-      </c>
-      <c r="G447">
-        <v>0</v>
-      </c>
-      <c r="H447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>50013</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="C448">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F448">
         <v>1</v>
@@ -9410,12 +9405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>50014</v>
+        <v>50013</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C449">
         <v>75</v>
@@ -9424,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="E449">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F449">
         <v>1</v>
@@ -9436,21 +9431,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>50015</v>
+        <v>50014</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="C450">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D450">
         <v>1</v>
       </c>
       <c r="E450">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F450">
         <v>1</v>
@@ -9462,21 +9457,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>50016</v>
+        <v>50015</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C451">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="D451">
         <v>1</v>
       </c>
       <c r="E451">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F451">
         <v>1</v>
@@ -9488,47 +9483,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A452">
+    <row r="452" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="2">
+        <v>50016</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C452" s="2">
+        <v>82</v>
+      </c>
+      <c r="D452" s="2">
+        <v>1</v>
+      </c>
+      <c r="E452" s="2">
+        <v>5</v>
+      </c>
+      <c r="F452" s="2">
+        <v>1</v>
+      </c>
+      <c r="G452" s="2">
+        <v>0</v>
+      </c>
+      <c r="H452" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A453">
         <v>50017</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B453" t="s">
         <v>485</v>
       </c>
-      <c r="C452">
-        <v>400</v>
-      </c>
-      <c r="D452">
-        <v>1</v>
-      </c>
-      <c r="E452">
-        <v>30</v>
-      </c>
-      <c r="F452">
-        <v>1</v>
-      </c>
-      <c r="G452">
-        <v>0</v>
-      </c>
-      <c r="H452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>50018</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="C453">
-        <v>500</v>
+        <v>76</v>
       </c>
       <c r="D453">
         <v>1</v>
       </c>
       <c r="E453">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F453">
         <v>1</v>
@@ -9540,21 +9535,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>50019</v>
+        <v>50018</v>
       </c>
       <c r="B454" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C454">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="D454">
         <v>1</v>
       </c>
       <c r="E454">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F454">
         <v>1</v>
@@ -9566,21 +9561,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>50020</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>498</v>
+        <v>50019</v>
+      </c>
+      <c r="B455" t="s">
+        <v>480</v>
       </c>
       <c r="C455">
-        <v>700</v>
+        <v>92</v>
       </c>
       <c r="D455">
         <v>1</v>
       </c>
       <c r="E455">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F455">
         <v>1</v>
@@ -9592,21 +9587,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>50021</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>484</v>
+        <v>50020</v>
+      </c>
+      <c r="B456" t="s">
+        <v>498</v>
       </c>
       <c r="C456">
-        <v>800</v>
+        <v>93</v>
       </c>
       <c r="D456">
         <v>1</v>
       </c>
       <c r="E456">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F456">
         <v>1</v>
@@ -9618,47 +9613,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A457">
+    <row r="457" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="2">
+        <v>50021</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C457" s="2">
+        <v>95</v>
+      </c>
+      <c r="D457" s="2">
+        <v>1</v>
+      </c>
+      <c r="E457" s="2">
+        <v>8</v>
+      </c>
+      <c r="F457" s="2">
+        <v>1</v>
+      </c>
+      <c r="G457" s="2">
+        <v>0</v>
+      </c>
+      <c r="H457" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A458">
         <v>50022</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B458" t="s">
         <v>493</v>
       </c>
-      <c r="C457">
-        <v>900</v>
-      </c>
-      <c r="D457">
-        <v>1</v>
-      </c>
-      <c r="E457">
-        <v>45</v>
-      </c>
-      <c r="F457">
-        <v>1</v>
-      </c>
-      <c r="G457">
-        <v>0</v>
-      </c>
-      <c r="H457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>50023</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="C458">
-        <v>1000</v>
+        <v>106</v>
       </c>
       <c r="D458">
         <v>1</v>
       </c>
       <c r="E458">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F458">
         <v>1</v>
@@ -9670,21 +9665,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>50024</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>476</v>
+        <v>50023</v>
+      </c>
+      <c r="B459" t="s">
+        <v>499</v>
       </c>
       <c r="C459">
-        <v>1100</v>
+        <v>111</v>
       </c>
       <c r="D459">
         <v>1</v>
       </c>
       <c r="E459">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F459">
         <v>1</v>
@@ -9696,21 +9691,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>50025</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>487</v>
+        <v>50024</v>
+      </c>
+      <c r="B460" t="s">
+        <v>476</v>
       </c>
       <c r="C460">
-        <v>1200</v>
+        <v>116</v>
       </c>
       <c r="D460">
         <v>1</v>
       </c>
       <c r="E460">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F460">
         <v>1</v>
@@ -9722,21 +9717,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>50026</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>489</v>
+        <v>50025</v>
+      </c>
+      <c r="B461" t="s">
+        <v>487</v>
       </c>
       <c r="C461">
-        <v>1300</v>
+        <v>121</v>
       </c>
       <c r="D461">
         <v>1</v>
       </c>
       <c r="E461">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F461">
         <v>1</v>
@@ -9748,47 +9743,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A462">
+    <row r="462" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="2">
+        <v>50026</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C462" s="2">
+        <v>160</v>
+      </c>
+      <c r="D462" s="2">
+        <v>1</v>
+      </c>
+      <c r="E462" s="2">
+        <v>13</v>
+      </c>
+      <c r="F462" s="2">
+        <v>1</v>
+      </c>
+      <c r="G462" s="2">
+        <v>0</v>
+      </c>
+      <c r="H462" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A463">
         <v>50027</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B463" t="s">
         <v>485</v>
       </c>
-      <c r="C462">
-        <v>1400</v>
-      </c>
-      <c r="D462">
-        <v>1</v>
-      </c>
-      <c r="E462">
-        <v>45</v>
-      </c>
-      <c r="F462">
-        <v>1</v>
-      </c>
-      <c r="G462">
-        <v>0</v>
-      </c>
-      <c r="H462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>50028</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="C463">
-        <v>1500</v>
+        <v>166</v>
       </c>
       <c r="D463">
         <v>1</v>
       </c>
       <c r="E463">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F463">
         <v>1</v>
@@ -9800,21 +9795,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>50029</v>
+        <v>50028</v>
       </c>
       <c r="B464" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C464">
-        <v>1600</v>
+        <v>171</v>
       </c>
       <c r="D464">
         <v>1</v>
       </c>
       <c r="E464">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F464">
         <v>1</v>
@@ -9826,21 +9821,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>50030</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>490</v>
+        <v>50029</v>
+      </c>
+      <c r="B465" t="s">
+        <v>480</v>
       </c>
       <c r="C465">
-        <v>1700</v>
+        <v>175</v>
       </c>
       <c r="D465">
         <v>1</v>
       </c>
       <c r="E465">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F465">
         <v>1</v>
@@ -9852,21 +9847,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>50031</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>484</v>
+        <v>50030</v>
+      </c>
+      <c r="B466" t="s">
+        <v>490</v>
       </c>
       <c r="C466">
-        <v>1800</v>
+        <v>182</v>
       </c>
       <c r="D466">
         <v>1</v>
       </c>
       <c r="E466">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F466">
         <v>1</v>
@@ -9878,47 +9873,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A467">
+    <row r="467" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="2">
+        <v>50031</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C467" s="2">
+        <v>200</v>
+      </c>
+      <c r="D467" s="2">
+        <v>1</v>
+      </c>
+      <c r="E467" s="2">
+        <v>21</v>
+      </c>
+      <c r="F467" s="2">
+        <v>1</v>
+      </c>
+      <c r="G467" s="2">
+        <v>0</v>
+      </c>
+      <c r="H467" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A468">
         <v>50032</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B468" t="s">
         <v>497</v>
       </c>
-      <c r="C467">
-        <v>1900</v>
-      </c>
-      <c r="D467">
-        <v>1</v>
-      </c>
-      <c r="E467">
-        <v>60</v>
-      </c>
-      <c r="F467">
-        <v>1</v>
-      </c>
-      <c r="G467">
-        <v>0</v>
-      </c>
-      <c r="H467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>50033</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="C468">
-        <v>2000</v>
+        <v>211</v>
       </c>
       <c r="D468">
         <v>1</v>
       </c>
       <c r="E468">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F468">
         <v>1</v>
@@ -9930,21 +9925,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>50034</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>482</v>
+        <v>50033</v>
+      </c>
+      <c r="B469" t="s">
+        <v>481</v>
       </c>
       <c r="C469">
-        <v>2100</v>
+        <v>215</v>
       </c>
       <c r="D469">
         <v>1</v>
       </c>
       <c r="E469">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F469">
         <v>1</v>
@@ -9956,21 +9951,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>50035</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>487</v>
+        <v>50034</v>
+      </c>
+      <c r="B470" t="s">
+        <v>482</v>
       </c>
       <c r="C470">
-        <v>4500</v>
+        <v>217</v>
       </c>
       <c r="D470">
         <v>1</v>
       </c>
       <c r="E470">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F470">
         <v>1</v>
@@ -9982,21 +9977,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>50036</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>478</v>
+        <v>50035</v>
+      </c>
+      <c r="B471" t="s">
+        <v>487</v>
       </c>
       <c r="C471">
-        <v>5000</v>
+        <v>219</v>
       </c>
       <c r="D471">
         <v>1</v>
       </c>
       <c r="E471">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F471">
         <v>1</v>
@@ -10008,47 +10003,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A472">
+    <row r="472" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="2">
+        <v>50036</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C472" s="2">
+        <v>250</v>
+      </c>
+      <c r="D472" s="2">
+        <v>1</v>
+      </c>
+      <c r="E472" s="2">
+        <v>35</v>
+      </c>
+      <c r="F472" s="2">
+        <v>1</v>
+      </c>
+      <c r="G472" s="2">
+        <v>0</v>
+      </c>
+      <c r="H472" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A473">
         <v>50037</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B473" t="s">
         <v>485</v>
       </c>
-      <c r="C472">
-        <v>5500</v>
-      </c>
-      <c r="D472">
-        <v>1</v>
-      </c>
-      <c r="E472">
-        <v>60</v>
-      </c>
-      <c r="F472">
-        <v>1</v>
-      </c>
-      <c r="G472">
-        <v>0</v>
-      </c>
-      <c r="H472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>50038</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C473">
-        <v>6000</v>
+        <v>258</v>
       </c>
       <c r="D473">
         <v>1</v>
       </c>
       <c r="E473">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F473">
         <v>1</v>
@@ -10060,21 +10055,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>50039</v>
+        <v>50038</v>
       </c>
       <c r="B474" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C474">
-        <v>6500</v>
+        <v>267</v>
       </c>
       <c r="D474">
         <v>1</v>
       </c>
       <c r="E474">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F474">
         <v>1</v>
@@ -10086,21 +10081,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>50040</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>490</v>
+        <v>50039</v>
+      </c>
+      <c r="B475" t="s">
+        <v>480</v>
       </c>
       <c r="C475">
-        <v>7000</v>
+        <v>270</v>
       </c>
       <c r="D475">
         <v>1</v>
       </c>
       <c r="E475">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F475">
         <v>1</v>
@@ -10112,21 +10107,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>50041</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>486</v>
+        <v>50040</v>
+      </c>
+      <c r="B476" t="s">
+        <v>490</v>
       </c>
       <c r="C476">
-        <v>7500</v>
+        <v>283</v>
       </c>
       <c r="D476">
         <v>1</v>
       </c>
       <c r="E476">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F476">
         <v>1</v>
@@ -10138,47 +10133,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A477">
+    <row r="477" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="2">
+        <v>50041</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477" s="2">
+        <v>310</v>
+      </c>
+      <c r="D477" s="2">
+        <v>1</v>
+      </c>
+      <c r="E477" s="2">
+        <v>55</v>
+      </c>
+      <c r="F477" s="2">
+        <v>1</v>
+      </c>
+      <c r="G477" s="2">
+        <v>0</v>
+      </c>
+      <c r="H477" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A478">
         <v>50042</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B478" t="s">
         <v>497</v>
       </c>
-      <c r="C477">
-        <v>8000</v>
-      </c>
-      <c r="D477">
-        <v>1</v>
-      </c>
-      <c r="E477">
-        <v>75</v>
-      </c>
-      <c r="F477">
-        <v>1</v>
-      </c>
-      <c r="G477">
-        <v>0</v>
-      </c>
-      <c r="H477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>50043</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="C478">
-        <v>8500</v>
+        <v>323</v>
       </c>
       <c r="D478">
         <v>1</v>
       </c>
       <c r="E478">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F478">
         <v>1</v>
@@ -10190,21 +10185,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>50044</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>476</v>
+        <v>50043</v>
+      </c>
+      <c r="B479" t="s">
+        <v>499</v>
       </c>
       <c r="C479">
-        <v>9000</v>
+        <v>333</v>
       </c>
       <c r="D479">
         <v>1</v>
       </c>
       <c r="E479">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F479">
         <v>1</v>
@@ -10216,15 +10211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>50045</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>500</v>
+        <v>50044</v>
+      </c>
+      <c r="B480" t="s">
+        <v>476</v>
       </c>
       <c r="C480">
-        <v>9500</v>
+        <v>337</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -10242,21 +10237,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>50046</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>489</v>
+        <v>50045</v>
+      </c>
+      <c r="B481" t="s">
+        <v>500</v>
       </c>
       <c r="C481">
-        <v>10000</v>
+        <v>370</v>
       </c>
       <c r="D481">
         <v>1</v>
       </c>
       <c r="E481">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F481">
         <v>1</v>
@@ -10268,47 +10263,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482">
+    <row r="482" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="2">
+        <v>50046</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C482" s="2">
+        <v>430</v>
+      </c>
+      <c r="D482" s="2">
+        <v>1</v>
+      </c>
+      <c r="E482" s="2">
+        <v>60</v>
+      </c>
+      <c r="F482" s="2">
+        <v>1</v>
+      </c>
+      <c r="G482" s="2">
+        <v>0</v>
+      </c>
+      <c r="H482" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A483">
         <v>50047</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B483" t="s">
         <v>485</v>
       </c>
-      <c r="C482">
-        <v>10500</v>
-      </c>
-      <c r="D482">
-        <v>1</v>
-      </c>
-      <c r="E482">
-        <v>75</v>
-      </c>
-      <c r="F482">
-        <v>1</v>
-      </c>
-      <c r="G482">
-        <v>0</v>
-      </c>
-      <c r="H482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>50048</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="C483">
-        <v>11000</v>
+        <v>433</v>
       </c>
       <c r="D483">
         <v>1</v>
       </c>
       <c r="E483">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F483">
         <v>1</v>
@@ -10320,21 +10315,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>50049</v>
+        <v>50048</v>
       </c>
       <c r="B484" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C484">
-        <v>11500</v>
+        <v>438</v>
       </c>
       <c r="D484">
         <v>1</v>
       </c>
       <c r="E484">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F484">
         <v>1</v>
@@ -10346,21 +10341,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>50050</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>496</v>
+        <v>50049</v>
+      </c>
+      <c r="B485" t="s">
+        <v>480</v>
       </c>
       <c r="C485">
-        <v>12000</v>
+        <v>450</v>
       </c>
       <c r="D485">
         <v>1</v>
       </c>
       <c r="E485">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F485">
         <v>1</v>
@@ -10372,21 +10367,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>50051</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>501</v>
+        <v>50050</v>
+      </c>
+      <c r="B486" t="s">
+        <v>496</v>
       </c>
       <c r="C486">
-        <v>12500</v>
+        <v>458</v>
       </c>
       <c r="D486">
         <v>1</v>
       </c>
       <c r="E486">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F486">
         <v>1</v>
@@ -10398,41 +10393,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A487">
+    <row r="487" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="2">
+        <v>50051</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C487" s="2">
+        <v>500</v>
+      </c>
+      <c r="D487" s="2">
+        <v>1</v>
+      </c>
+      <c r="E487" s="2">
+        <v>77</v>
+      </c>
+      <c r="F487" s="2">
+        <v>1</v>
+      </c>
+      <c r="G487" s="2">
+        <v>0</v>
+      </c>
+      <c r="H487" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A488">
         <v>50052</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B488" t="s">
         <v>497</v>
       </c>
-      <c r="C487">
-        <v>13000</v>
-      </c>
-      <c r="D487">
-        <v>1</v>
-      </c>
-      <c r="E487">
-        <v>90</v>
-      </c>
-      <c r="F487">
-        <v>1</v>
-      </c>
-      <c r="G487">
-        <v>0</v>
-      </c>
-      <c r="H487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>50053</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="C488">
-        <v>13500</v>
+        <v>490</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -10450,15 +10445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>50054</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>494</v>
+        <v>50053</v>
+      </c>
+      <c r="B489" t="s">
+        <v>481</v>
       </c>
       <c r="C489">
-        <v>14000</v>
+        <v>510</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -10476,15 +10471,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>50055</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>477</v>
+        <v>50054</v>
+      </c>
+      <c r="B490" t="s">
+        <v>494</v>
       </c>
       <c r="C490">
-        <v>14500</v>
+        <v>520</v>
       </c>
       <c r="D490">
         <v>1</v>
@@ -10502,15 +10497,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>50056</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>489</v>
+        <v>50055</v>
+      </c>
+      <c r="B491" t="s">
+        <v>477</v>
       </c>
       <c r="C491">
-        <v>15000</v>
+        <v>523</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -10528,47 +10523,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A492">
+    <row r="492" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="2">
+        <v>50056</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C492" s="2">
+        <v>600</v>
+      </c>
+      <c r="D492" s="2">
+        <v>1</v>
+      </c>
+      <c r="E492" s="2">
+        <v>93</v>
+      </c>
+      <c r="F492" s="2">
+        <v>1</v>
+      </c>
+      <c r="G492" s="2">
+        <v>0</v>
+      </c>
+      <c r="H492" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493">
         <v>50057</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B493" t="s">
         <v>485</v>
       </c>
-      <c r="C492">
-        <v>15500</v>
-      </c>
-      <c r="D492">
-        <v>1</v>
-      </c>
-      <c r="E492">
-        <v>90</v>
-      </c>
-      <c r="F492">
-        <v>1</v>
-      </c>
-      <c r="G492">
-        <v>0</v>
-      </c>
-      <c r="H492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>50058</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="C493">
-        <v>16000</v>
+        <v>613</v>
       </c>
       <c r="D493">
         <v>1</v>
       </c>
       <c r="E493">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F493">
         <v>1</v>
@@ -10580,21 +10575,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>50059</v>
+        <v>50058</v>
       </c>
       <c r="B494" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C494">
-        <v>16500</v>
+        <v>623</v>
       </c>
       <c r="D494">
         <v>1</v>
       </c>
       <c r="E494">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F494">
         <v>1</v>
@@ -10606,21 +10601,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>50060</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>498</v>
+        <v>50059</v>
+      </c>
+      <c r="B495" t="s">
+        <v>480</v>
       </c>
       <c r="C495">
-        <v>17000</v>
+        <v>633</v>
       </c>
       <c r="D495">
         <v>1</v>
       </c>
       <c r="E495">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F495">
         <v>1</v>
@@ -10632,21 +10627,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>50061</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>486</v>
+        <v>50060</v>
+      </c>
+      <c r="B496" t="s">
+        <v>498</v>
       </c>
       <c r="C496">
-        <v>17500</v>
+        <v>666</v>
       </c>
       <c r="D496">
         <v>1</v>
       </c>
       <c r="E496">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F496">
         <v>1</v>
@@ -10658,41 +10653,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497">
+    <row r="497" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="2">
+        <v>50061</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C497" s="2">
+        <v>700</v>
+      </c>
+      <c r="D497" s="2">
+        <v>1</v>
+      </c>
+      <c r="E497" s="2">
+        <v>101</v>
+      </c>
+      <c r="F497" s="2">
+        <v>1</v>
+      </c>
+      <c r="G497" s="2">
+        <v>0</v>
+      </c>
+      <c r="H497" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498">
         <v>50062</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B498" t="s">
         <v>493</v>
       </c>
-      <c r="C497">
-        <v>18000</v>
-      </c>
-      <c r="D497">
-        <v>1</v>
-      </c>
-      <c r="E497">
-        <v>105</v>
-      </c>
-      <c r="F497">
-        <v>1</v>
-      </c>
-      <c r="G497">
-        <v>0</v>
-      </c>
-      <c r="H497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>50063</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="C498">
-        <v>18500</v>
+        <v>721</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -10710,21 +10705,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499">
-        <v>50064</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>494</v>
+        <v>50063</v>
+      </c>
+      <c r="B499" t="s">
+        <v>502</v>
       </c>
       <c r="C499">
-        <v>19000</v>
+        <v>723</v>
       </c>
       <c r="D499">
         <v>1</v>
       </c>
       <c r="E499">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F499">
         <v>1</v>
@@ -10736,21 +10731,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500">
-        <v>50065</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>500</v>
+        <v>50064</v>
+      </c>
+      <c r="B500" t="s">
+        <v>494</v>
       </c>
       <c r="C500">
-        <v>19500</v>
+        <v>733</v>
       </c>
       <c r="D500">
         <v>1</v>
       </c>
       <c r="E500">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F500">
         <v>1</v>
@@ -10762,21 +10757,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501">
-        <v>50066</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>503</v>
+        <v>50065</v>
+      </c>
+      <c r="B501" t="s">
+        <v>500</v>
       </c>
       <c r="C501">
-        <v>20000</v>
+        <v>763</v>
       </c>
       <c r="D501">
         <v>1</v>
       </c>
       <c r="E501">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F501">
         <v>1</v>
@@ -10788,47 +10783,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502">
+    <row r="502" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="2">
+        <v>50066</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C502" s="2">
+        <v>800</v>
+      </c>
+      <c r="D502" s="2">
+        <v>1</v>
+      </c>
+      <c r="E502" s="2">
+        <v>120</v>
+      </c>
+      <c r="F502" s="2">
+        <v>1</v>
+      </c>
+      <c r="G502" s="2">
+        <v>0</v>
+      </c>
+      <c r="H502" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503">
         <v>50067</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B503" t="s">
         <v>485</v>
       </c>
-      <c r="C502">
-        <v>20500</v>
-      </c>
-      <c r="D502">
-        <v>1</v>
-      </c>
-      <c r="E502">
-        <v>105</v>
-      </c>
-      <c r="F502">
-        <v>1</v>
-      </c>
-      <c r="G502">
-        <v>0</v>
-      </c>
-      <c r="H502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503">
-        <v>50068</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C503">
-        <v>21000</v>
+        <v>833</v>
       </c>
       <c r="D503">
         <v>1</v>
       </c>
       <c r="E503">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F503">
         <v>1</v>
@@ -10840,21 +10835,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504">
-        <v>50069</v>
+        <v>50068</v>
       </c>
       <c r="B504" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C504">
-        <v>21500</v>
+        <v>868</v>
       </c>
       <c r="D504">
         <v>1</v>
       </c>
       <c r="E504">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F504">
         <v>1</v>
@@ -10866,21 +10861,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505">
-        <v>50070</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>498</v>
+        <v>50069</v>
+      </c>
+      <c r="B505" t="s">
+        <v>480</v>
       </c>
       <c r="C505">
-        <v>22000</v>
+        <v>877</v>
       </c>
       <c r="D505">
         <v>1</v>
       </c>
       <c r="E505">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F505">
         <v>1</v>
@@ -10892,21 +10887,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506">
-        <v>50071</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>484</v>
+        <v>50070</v>
+      </c>
+      <c r="B506" t="s">
+        <v>498</v>
       </c>
       <c r="C506">
-        <v>22500</v>
+        <v>898</v>
       </c>
       <c r="D506">
         <v>1</v>
       </c>
       <c r="E506">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F506">
         <v>1</v>
@@ -10918,47 +10913,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507">
+    <row r="507" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>50071</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C507" s="2">
+        <v>900</v>
+      </c>
+      <c r="D507" s="2">
+        <v>1</v>
+      </c>
+      <c r="E507" s="2">
+        <v>137</v>
+      </c>
+      <c r="F507" s="2">
+        <v>1</v>
+      </c>
+      <c r="G507" s="2">
+        <v>0</v>
+      </c>
+      <c r="H507" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508">
         <v>50072</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B508" t="s">
         <v>491</v>
       </c>
-      <c r="C507">
-        <v>23000</v>
-      </c>
-      <c r="D507">
-        <v>1</v>
-      </c>
-      <c r="E507">
-        <v>120</v>
-      </c>
-      <c r="F507">
-        <v>1</v>
-      </c>
-      <c r="G507">
-        <v>0</v>
-      </c>
-      <c r="H507">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A508">
-        <v>50073</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="C508">
-        <v>23500</v>
+        <v>955</v>
       </c>
       <c r="D508">
         <v>1</v>
       </c>
       <c r="E508">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F508">
         <v>1</v>
@@ -10970,21 +10965,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509">
-        <v>50074</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>504</v>
+        <v>50073</v>
+      </c>
+      <c r="B509" t="s">
+        <v>481</v>
       </c>
       <c r="C509">
-        <v>24000</v>
+        <v>933</v>
       </c>
       <c r="D509">
         <v>1</v>
       </c>
       <c r="E509">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="F509">
         <v>1</v>
@@ -10996,21 +10991,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510">
-        <v>50075</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>487</v>
+        <v>50074</v>
+      </c>
+      <c r="B510" t="s">
+        <v>504</v>
       </c>
       <c r="C510">
-        <v>24500</v>
+        <v>920</v>
       </c>
       <c r="D510">
         <v>1</v>
       </c>
       <c r="E510">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F510">
         <v>1</v>
@@ -11022,21 +11017,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511">
-        <v>50076</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>478</v>
+        <v>50075</v>
+      </c>
+      <c r="B511" t="s">
+        <v>487</v>
       </c>
       <c r="C511">
-        <v>25000</v>
+        <v>990</v>
       </c>
       <c r="D511">
         <v>1</v>
       </c>
       <c r="E511">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F511">
         <v>1</v>
@@ -11048,47 +11043,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A512">
+    <row r="512" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="2">
+        <v>50076</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C512" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D512" s="2">
+        <v>1</v>
+      </c>
+      <c r="E512" s="2">
+        <v>250</v>
+      </c>
+      <c r="F512" s="2">
+        <v>1</v>
+      </c>
+      <c r="G512" s="2">
+        <v>0</v>
+      </c>
+      <c r="H512" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513">
         <v>50077</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B513" t="s">
         <v>485</v>
       </c>
-      <c r="C512">
-        <v>25500</v>
-      </c>
-      <c r="D512">
-        <v>1</v>
-      </c>
-      <c r="E512">
-        <v>120</v>
-      </c>
-      <c r="F512">
-        <v>1</v>
-      </c>
-      <c r="G512">
-        <v>0</v>
-      </c>
-      <c r="H512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A513">
-        <v>50078</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C513">
-        <v>26000</v>
+        <v>1080</v>
       </c>
       <c r="D513">
         <v>1</v>
       </c>
       <c r="E513">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="F513">
         <v>1</v>
@@ -11100,21 +11095,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514">
-        <v>50079</v>
+        <v>50078</v>
       </c>
       <c r="B514" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C514">
-        <v>26500</v>
+        <v>1050</v>
       </c>
       <c r="D514">
         <v>1</v>
       </c>
       <c r="E514">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="F514">
         <v>1</v>
@@ -11126,21 +11121,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515">
-        <v>50080</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>483</v>
+        <v>50079</v>
+      </c>
+      <c r="B515" t="s">
+        <v>480</v>
       </c>
       <c r="C515">
-        <v>27000</v>
+        <v>1123</v>
       </c>
       <c r="D515">
         <v>1</v>
       </c>
       <c r="E515">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F515">
         <v>1</v>
@@ -11152,21 +11147,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516">
-        <v>50081</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>484</v>
+        <v>50080</v>
+      </c>
+      <c r="B516" t="s">
+        <v>483</v>
       </c>
       <c r="C516">
-        <v>27500</v>
+        <v>1133</v>
       </c>
       <c r="D516">
         <v>1</v>
       </c>
       <c r="E516">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="F516">
         <v>1</v>
@@ -11178,47 +11173,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A517">
+    <row r="517" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="2">
+        <v>50081</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C517" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D517" s="2">
+        <v>1</v>
+      </c>
+      <c r="E517" s="2">
+        <v>300</v>
+      </c>
+      <c r="F517" s="2">
+        <v>1</v>
+      </c>
+      <c r="G517" s="2">
+        <v>0</v>
+      </c>
+      <c r="H517" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518">
         <v>50082</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B518" t="s">
         <v>475</v>
       </c>
-      <c r="C517">
-        <v>28000</v>
-      </c>
-      <c r="D517">
-        <v>1</v>
-      </c>
-      <c r="E517">
-        <v>135</v>
-      </c>
-      <c r="F517">
-        <v>1</v>
-      </c>
-      <c r="G517">
-        <v>0</v>
-      </c>
-      <c r="H517">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>50083</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="C518">
-        <v>28500</v>
+        <v>1111</v>
       </c>
       <c r="D518">
         <v>1</v>
       </c>
       <c r="E518">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="F518">
         <v>1</v>
@@ -11230,21 +11225,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519">
-        <v>50084</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>482</v>
+        <v>50083</v>
+      </c>
+      <c r="B519" t="s">
+        <v>481</v>
       </c>
       <c r="C519">
-        <v>29000</v>
+        <v>1123</v>
       </c>
       <c r="D519">
         <v>1</v>
       </c>
       <c r="E519">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="F519">
         <v>1</v>
@@ -11256,21 +11251,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520">
-        <v>50085</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>487</v>
+        <v>50084</v>
+      </c>
+      <c r="B520" t="s">
+        <v>482</v>
       </c>
       <c r="C520">
-        <v>29500</v>
+        <v>1190</v>
       </c>
       <c r="D520">
         <v>1</v>
       </c>
       <c r="E520">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="F520">
         <v>1</v>
@@ -11282,21 +11277,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521">
-        <v>50086</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>478</v>
+        <v>50085</v>
+      </c>
+      <c r="B521" t="s">
+        <v>487</v>
       </c>
       <c r="C521">
-        <v>30000</v>
+        <v>1323</v>
       </c>
       <c r="D521">
         <v>1</v>
       </c>
       <c r="E521">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="F521">
         <v>1</v>
@@ -11308,41 +11303,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A522">
+    <row r="522" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="2">
+        <v>50086</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C522" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D522" s="2">
+        <v>1</v>
+      </c>
+      <c r="E522" s="2">
+        <v>360</v>
+      </c>
+      <c r="F522" s="2">
+        <v>1</v>
+      </c>
+      <c r="G522" s="2">
+        <v>0</v>
+      </c>
+      <c r="H522" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523">
         <v>50087</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B523" t="s">
         <v>485</v>
       </c>
-      <c r="C522">
-        <v>30500</v>
-      </c>
-      <c r="D522">
-        <v>1</v>
-      </c>
-      <c r="E522">
-        <v>135</v>
-      </c>
-      <c r="F522">
-        <v>1</v>
-      </c>
-      <c r="G522">
-        <v>0</v>
-      </c>
-      <c r="H522">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A523">
-        <v>50088</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C523">
-        <v>31000</v>
+        <v>1432</v>
       </c>
       <c r="D523">
         <v>1</v>
@@ -11360,15 +11355,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524">
-        <v>50089</v>
+        <v>50088</v>
       </c>
       <c r="B524" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C524">
-        <v>31500</v>
+        <v>1463</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -11386,15 +11381,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525">
-        <v>50090</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>490</v>
+        <v>50089</v>
+      </c>
+      <c r="B525" t="s">
+        <v>480</v>
       </c>
       <c r="C525">
-        <v>32000</v>
+        <v>1523</v>
       </c>
       <c r="D525">
         <v>1</v>
@@ -11412,21 +11407,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526">
-        <v>50091</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>486</v>
+        <v>50090</v>
+      </c>
+      <c r="B526" t="s">
+        <v>490</v>
       </c>
       <c r="C526">
-        <v>32500</v>
+        <v>1500</v>
       </c>
       <c r="D526">
         <v>1</v>
       </c>
       <c r="E526">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F526">
         <v>1</v>
@@ -11438,47 +11433,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A527">
+    <row r="527" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="2">
+        <v>50091</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C527" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D527" s="2">
+        <v>1</v>
+      </c>
+      <c r="E527" s="2">
+        <v>400</v>
+      </c>
+      <c r="F527" s="2">
+        <v>1</v>
+      </c>
+      <c r="G527" s="2">
+        <v>0</v>
+      </c>
+      <c r="H527" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A528">
         <v>50092</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="B528" t="s">
         <v>475</v>
       </c>
-      <c r="C527">
-        <v>33000</v>
-      </c>
-      <c r="D527">
-        <v>1</v>
-      </c>
-      <c r="E527">
-        <v>150</v>
-      </c>
-      <c r="F527">
-        <v>1</v>
-      </c>
-      <c r="G527">
-        <v>0</v>
-      </c>
-      <c r="H527">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A528">
-        <v>50093</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="C528">
-        <v>33500</v>
+        <v>1633</v>
       </c>
       <c r="D528">
         <v>1</v>
       </c>
       <c r="E528">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="F528">
         <v>1</v>
@@ -11490,21 +11485,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529">
-        <v>50094</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>476</v>
+        <v>50093</v>
+      </c>
+      <c r="B529" t="s">
+        <v>492</v>
       </c>
       <c r="C529">
-        <v>34000</v>
+        <v>1680</v>
       </c>
       <c r="D529">
         <v>1</v>
       </c>
       <c r="E529">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="F529">
         <v>1</v>
@@ -11516,21 +11511,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530">
-        <v>50095</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>495</v>
+        <v>50094</v>
+      </c>
+      <c r="B530" t="s">
+        <v>476</v>
       </c>
       <c r="C530">
-        <v>34500</v>
+        <v>1715</v>
       </c>
       <c r="D530">
         <v>1</v>
       </c>
       <c r="E530">
-        <v>150</v>
+        <v>395</v>
       </c>
       <c r="F530">
         <v>1</v>
@@ -11542,21 +11537,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531">
-        <v>50096</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>489</v>
+        <v>50095</v>
+      </c>
+      <c r="B531" t="s">
+        <v>495</v>
       </c>
       <c r="C531">
-        <v>35000</v>
+        <v>1792</v>
       </c>
       <c r="D531">
         <v>1</v>
       </c>
       <c r="E531">
-        <v>150</v>
+        <v>373</v>
       </c>
       <c r="F531">
         <v>1</v>
@@ -11568,47 +11563,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A532">
+    <row r="532" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="2">
+        <v>50096</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C532" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D532" s="2">
+        <v>1</v>
+      </c>
+      <c r="E532" s="2">
+        <v>470</v>
+      </c>
+      <c r="F532" s="2">
+        <v>1</v>
+      </c>
+      <c r="G532" s="2">
+        <v>0</v>
+      </c>
+      <c r="H532" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A533">
         <v>50097</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B533" t="s">
         <v>485</v>
       </c>
-      <c r="C532">
-        <v>35500</v>
-      </c>
-      <c r="D532">
-        <v>1</v>
-      </c>
-      <c r="E532">
-        <v>150</v>
-      </c>
-      <c r="F532">
-        <v>1</v>
-      </c>
-      <c r="G532">
-        <v>0</v>
-      </c>
-      <c r="H532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A533">
-        <v>50098</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C533">
-        <v>36000</v>
+        <v>1773</v>
       </c>
       <c r="D533">
         <v>1</v>
       </c>
       <c r="E533">
-        <v>150</v>
+        <v>488</v>
       </c>
       <c r="F533">
         <v>1</v>
@@ -11620,21 +11615,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534">
-        <v>50099</v>
-      </c>
-      <c r="B534" t="s">
-        <v>480</v>
+        <v>50098</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="C534">
-        <v>36500</v>
+        <v>1923</v>
       </c>
       <c r="D534">
         <v>1</v>
       </c>
       <c r="E534">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="F534">
         <v>1</v>
@@ -11646,21 +11641,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535">
-        <v>50100</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>483</v>
+        <v>50099</v>
+      </c>
+      <c r="B535" t="s">
+        <v>480</v>
       </c>
       <c r="C535">
-        <v>37000</v>
+        <v>1873</v>
       </c>
       <c r="D535">
         <v>1</v>
       </c>
       <c r="E535">
-        <v>150</v>
+        <v>523</v>
       </c>
       <c r="F535">
         <v>1</v>
@@ -11672,32 +11667,1990 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536">
+        <v>50100</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C536">
+        <v>1987</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>550</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A537">
         <v>50101</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="M536">
+      <c r="M537">
         <v>20</v>
       </c>
-      <c r="N536">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="N537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A538">
         <v>50102</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="B538" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G537">
+      <c r="G538">
         <v>100</v>
       </c>
-      <c r="H537">
-        <v>1</v>
+      <c r="H538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>61001</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C540">
+        <v>80</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540">
+        <v>1</v>
+      </c>
+      <c r="F540">
+        <v>1</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>61002</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C541">
+        <v>120</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>2</v>
+      </c>
+      <c r="F541">
+        <v>1</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>61003</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C542">
+        <v>160</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542">
+        <v>3</v>
+      </c>
+      <c r="F542">
+        <v>1</v>
+      </c>
+      <c r="G542">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>61004</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C543">
+        <v>190</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>30</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
+      </c>
+      <c r="G543">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>61005</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C544">
+        <v>320</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>40</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+      <c r="G544">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>61006</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C545">
+        <v>400</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>50</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545">
+        <v>9</v>
+      </c>
+      <c r="H545">
+        <v>1</v>
+      </c>
+      <c r="I545">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>61007</v>
+      </c>
+      <c r="B546" t="s">
+        <v>485</v>
+      </c>
+      <c r="C546">
+        <v>500</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>60</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
+      </c>
+      <c r="G546">
+        <v>11</v>
+      </c>
+      <c r="H546">
+        <v>1</v>
+      </c>
+      <c r="I546">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>61008</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C547">
+        <v>620</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547">
+        <v>70</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>13</v>
+      </c>
+      <c r="H547">
+        <v>1</v>
+      </c>
+      <c r="I547">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>61009</v>
+      </c>
+      <c r="B548" t="s">
+        <v>480</v>
+      </c>
+      <c r="C548">
+        <v>800</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>80</v>
+      </c>
+      <c r="F548">
+        <v>1</v>
+      </c>
+      <c r="G548">
+        <v>15</v>
+      </c>
+      <c r="H548">
+        <v>1</v>
+      </c>
+      <c r="I548">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>61010</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C549">
+        <v>860</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>120</v>
+      </c>
+      <c r="F549">
+        <v>1</v>
+      </c>
+      <c r="G549">
+        <v>17</v>
+      </c>
+      <c r="H549">
+        <v>1</v>
+      </c>
+      <c r="I549">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>61011</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C550">
+        <v>1000</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550">
+        <v>140</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+      <c r="G550">
+        <v>19</v>
+      </c>
+      <c r="H550">
+        <v>1</v>
+      </c>
+      <c r="I550">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>61012</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C551">
+        <v>1200</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>160</v>
+      </c>
+      <c r="F551">
+        <v>1</v>
+      </c>
+      <c r="G551">
+        <v>21</v>
+      </c>
+      <c r="H551">
+        <v>1</v>
+      </c>
+      <c r="I551">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>61013</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C552">
+        <v>1400</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>180</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+      <c r="G552">
+        <v>23</v>
+      </c>
+      <c r="H552">
+        <v>1</v>
+      </c>
+      <c r="I552">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>61014</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C553">
+        <v>1600</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>200</v>
+      </c>
+      <c r="F553">
+        <v>1</v>
+      </c>
+      <c r="G553">
+        <v>25</v>
+      </c>
+      <c r="H553">
+        <v>1</v>
+      </c>
+      <c r="I553">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>61015</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C554">
+        <v>1800</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>230</v>
+      </c>
+      <c r="F554">
+        <v>1</v>
+      </c>
+      <c r="G554">
+        <v>27</v>
+      </c>
+      <c r="H554">
+        <v>1</v>
+      </c>
+      <c r="I554">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>61016</v>
+      </c>
+      <c r="B555" t="s">
+        <v>485</v>
+      </c>
+      <c r="C555">
+        <v>2000</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555">
+        <v>260</v>
+      </c>
+      <c r="F555">
+        <v>1</v>
+      </c>
+      <c r="G555">
+        <v>29</v>
+      </c>
+      <c r="H555">
+        <v>1</v>
+      </c>
+      <c r="I555">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>61017</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C556">
+        <v>2400</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>290</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+      <c r="G556">
+        <v>31</v>
+      </c>
+      <c r="H556">
+        <v>1</v>
+      </c>
+      <c r="I556">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>61018</v>
+      </c>
+      <c r="B557" t="s">
+        <v>480</v>
+      </c>
+      <c r="C557">
+        <v>2800</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>320</v>
+      </c>
+      <c r="F557">
+        <v>1</v>
+      </c>
+      <c r="G557">
+        <v>33</v>
+      </c>
+      <c r="H557">
+        <v>1</v>
+      </c>
+      <c r="I557">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>61019</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C558">
+        <v>3200</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>360</v>
+      </c>
+      <c r="F558">
+        <v>1</v>
+      </c>
+      <c r="G558">
+        <v>35</v>
+      </c>
+      <c r="H558">
+        <v>1</v>
+      </c>
+      <c r="I558">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>61020</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C559">
+        <v>3600</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>420</v>
+      </c>
+      <c r="F559">
+        <v>1</v>
+      </c>
+      <c r="G559">
+        <v>37</v>
+      </c>
+      <c r="H559">
+        <v>1</v>
+      </c>
+      <c r="I559">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>61021</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C560">
+        <v>4000</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560">
+        <v>480</v>
+      </c>
+      <c r="F560">
+        <v>1</v>
+      </c>
+      <c r="G560">
+        <v>39</v>
+      </c>
+      <c r="H560">
+        <v>1</v>
+      </c>
+      <c r="I560">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>61022</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C561">
+        <v>4500</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561">
+        <v>550</v>
+      </c>
+      <c r="F561">
+        <v>1</v>
+      </c>
+      <c r="G561">
+        <v>41</v>
+      </c>
+      <c r="H561">
+        <v>1</v>
+      </c>
+      <c r="I561">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>61023</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C562">
+        <v>5000</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562">
+        <v>620</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
+      </c>
+      <c r="G562">
+        <v>43</v>
+      </c>
+      <c r="H562">
+        <v>1</v>
+      </c>
+      <c r="I562">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>61024</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C563">
+        <v>5200</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>700</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>45</v>
+      </c>
+      <c r="H563">
+        <v>1</v>
+      </c>
+      <c r="I563">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>61025</v>
+      </c>
+      <c r="B564" t="s">
+        <v>485</v>
+      </c>
+      <c r="C564">
+        <v>5600</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564">
+        <v>780</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+      <c r="G564">
+        <v>47</v>
+      </c>
+      <c r="H564">
+        <v>1</v>
+      </c>
+      <c r="I564">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>61026</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C565">
+        <v>5900</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>860</v>
+      </c>
+      <c r="F565">
+        <v>1</v>
+      </c>
+      <c r="G565">
+        <v>49</v>
+      </c>
+      <c r="H565">
+        <v>1</v>
+      </c>
+      <c r="I565">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>61027</v>
+      </c>
+      <c r="B566" t="s">
+        <v>480</v>
+      </c>
+      <c r="C566">
+        <v>6000</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566">
+        <v>940</v>
+      </c>
+      <c r="F566">
+        <v>1</v>
+      </c>
+      <c r="G566">
+        <v>51</v>
+      </c>
+      <c r="H566">
+        <v>1</v>
+      </c>
+      <c r="I566">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>61028</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C567">
+        <v>7000</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>1000</v>
+      </c>
+      <c r="F567">
+        <v>1</v>
+      </c>
+      <c r="G567">
+        <v>53</v>
+      </c>
+      <c r="H567">
+        <v>1</v>
+      </c>
+      <c r="I567">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>61029</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C568">
+        <v>8000</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1100</v>
+      </c>
+      <c r="F568">
+        <v>1</v>
+      </c>
+      <c r="G568">
+        <v>55</v>
+      </c>
+      <c r="H568">
+        <v>1</v>
+      </c>
+      <c r="I568">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>61030</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C569">
+        <v>9000</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1200</v>
+      </c>
+      <c r="F569">
+        <v>1</v>
+      </c>
+      <c r="G569">
+        <v>57</v>
+      </c>
+      <c r="H569">
+        <v>1</v>
+      </c>
+      <c r="I569">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>61031</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C570">
+        <v>10000</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>1300</v>
+      </c>
+      <c r="F570">
+        <v>1</v>
+      </c>
+      <c r="G570">
+        <v>59</v>
+      </c>
+      <c r="H570">
+        <v>1</v>
+      </c>
+      <c r="I570">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>61032</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C571">
+        <v>11000</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1400</v>
+      </c>
+      <c r="F571">
+        <v>1</v>
+      </c>
+      <c r="G571">
+        <v>61</v>
+      </c>
+      <c r="H571">
+        <v>1</v>
+      </c>
+      <c r="I571">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>61033</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C572">
+        <v>12000</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572">
+        <v>1500</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
+      <c r="G572">
+        <v>63</v>
+      </c>
+      <c r="H572">
+        <v>1</v>
+      </c>
+      <c r="I572">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>61034</v>
+      </c>
+      <c r="B573" t="s">
+        <v>485</v>
+      </c>
+      <c r="C573">
+        <v>13000</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>1600</v>
+      </c>
+      <c r="F573">
+        <v>1</v>
+      </c>
+      <c r="G573">
+        <v>65</v>
+      </c>
+      <c r="H573">
+        <v>1</v>
+      </c>
+      <c r="I573">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>61035</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C574">
+        <v>14000</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
+        <v>1700</v>
+      </c>
+      <c r="F574">
+        <v>1</v>
+      </c>
+      <c r="G574">
+        <v>67</v>
+      </c>
+      <c r="H574">
+        <v>1</v>
+      </c>
+      <c r="I574">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>61036</v>
+      </c>
+      <c r="B575" t="s">
+        <v>480</v>
+      </c>
+      <c r="C575">
+        <v>15000</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>1800</v>
+      </c>
+      <c r="F575">
+        <v>1</v>
+      </c>
+      <c r="G575">
+        <v>69</v>
+      </c>
+      <c r="H575">
+        <v>1</v>
+      </c>
+      <c r="I575">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>61037</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="F576">
+        <v>1</v>
+      </c>
+      <c r="G576">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>61038</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="F577">
+        <v>1</v>
+      </c>
+      <c r="G577">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>61039</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="F578">
+        <v>1</v>
+      </c>
+      <c r="G578">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>61040</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="F579">
+        <v>1</v>
+      </c>
+      <c r="G579">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>61041</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="F580">
+        <v>1</v>
+      </c>
+      <c r="G580">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>61042</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="F581">
+        <v>1</v>
+      </c>
+      <c r="G581">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>61043</v>
+      </c>
+      <c r="B582" t="s">
+        <v>485</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="F582">
+        <v>1</v>
+      </c>
+      <c r="G582">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>61044</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="F583">
+        <v>1</v>
+      </c>
+      <c r="G583">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>61045</v>
+      </c>
+      <c r="B584" t="s">
+        <v>480</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="F584">
+        <v>1</v>
+      </c>
+      <c r="G584">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>61046</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="F585">
+        <v>1</v>
+      </c>
+      <c r="G585">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>61047</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="F586">
+        <v>1</v>
+      </c>
+      <c r="G586">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>61048</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="F587">
+        <v>1</v>
+      </c>
+      <c r="G587">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>61049</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="F588">
+        <v>1</v>
+      </c>
+      <c r="G588">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>61050</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="F589">
+        <v>1</v>
+      </c>
+      <c r="G589">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>61051</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
+      <c r="G590">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>61052</v>
+      </c>
+      <c r="B591" t="s">
+        <v>485</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="F591">
+        <v>1</v>
+      </c>
+      <c r="G591">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>61053</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="F592">
+        <v>1</v>
+      </c>
+      <c r="G592">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>61054</v>
+      </c>
+      <c r="B593" t="s">
+        <v>480</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="F593">
+        <v>1</v>
+      </c>
+      <c r="G593">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>61055</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="F594">
+        <v>1</v>
+      </c>
+      <c r="G594">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>61056</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="F595">
+        <v>1</v>
+      </c>
+      <c r="G595">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>61057</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="F596">
+        <v>1</v>
+      </c>
+      <c r="G596">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>61058</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="F597">
+        <v>1</v>
+      </c>
+      <c r="G597">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>61059</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+      <c r="G598">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>61060</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="F599">
+        <v>1</v>
+      </c>
+      <c r="G599">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>61061</v>
+      </c>
+      <c r="B600" t="s">
+        <v>485</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+      <c r="F600">
+        <v>1</v>
+      </c>
+      <c r="G600">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>61062</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+      <c r="G601">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>61063</v>
+      </c>
+      <c r="B602" t="s">
+        <v>480</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="F602">
+        <v>1</v>
+      </c>
+      <c r="G602">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>61064</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="F603">
+        <v>1</v>
+      </c>
+      <c r="G603">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>61065</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="F604">
+        <v>1</v>
+      </c>
+      <c r="G604">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>61066</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="F605">
+        <v>1</v>
+      </c>
+      <c r="G605">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>61067</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="F606">
+        <v>1</v>
+      </c>
+      <c r="G606">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>61068</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="F607">
+        <v>1</v>
+      </c>
+      <c r="G607">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>61069</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="F608">
+        <v>1</v>
+      </c>
+      <c r="G608">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>61070</v>
+      </c>
+      <c r="B609" t="s">
+        <v>485</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="F609">
+        <v>1</v>
+      </c>
+      <c r="G609">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>61071</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="F610">
+        <v>1</v>
+      </c>
+      <c r="G610">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>61072</v>
+      </c>
+      <c r="B611" t="s">
+        <v>480</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>1</v>
+      </c>
+      <c r="G611">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>61073</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="F612">
+        <v>1</v>
+      </c>
+      <c r="G612">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>61074</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="F613">
+        <v>1</v>
+      </c>
+      <c r="G613">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>61075</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="F614">
+        <v>1</v>
+      </c>
+      <c r="G614">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>61076</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="F615">
+        <v>1</v>
+      </c>
+      <c r="G615">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>61077</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+      <c r="F616">
+        <v>1</v>
+      </c>
+      <c r="G616">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>61078</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>1</v>
+      </c>
+      <c r="G617">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>61079</v>
+      </c>
+      <c r="B618" t="s">
+        <v>485</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="F618">
+        <v>1</v>
+      </c>
+      <c r="G618">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>61080</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+      <c r="F619">
+        <v>1</v>
+      </c>
+      <c r="G619">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>61081</v>
+      </c>
+      <c r="B620" t="s">
+        <v>480</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+      <c r="F620">
+        <v>1</v>
+      </c>
+      <c r="G620">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>61082</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+      <c r="F621">
+        <v>1</v>
+      </c>
+      <c r="G621">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>61083</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="F622">
+        <v>1</v>
+      </c>
+      <c r="G622">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>61084</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+      <c r="F623">
+        <v>1</v>
+      </c>
+      <c r="G623">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>61085</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="F624">
+        <v>1</v>
+      </c>
+      <c r="G624">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>61086</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="F625">
+        <v>1</v>
+      </c>
+      <c r="G625">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>61087</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
+      </c>
+      <c r="F626">
+        <v>1</v>
+      </c>
+      <c r="G626">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>61088</v>
+      </c>
+      <c r="B627" t="s">
+        <v>485</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
+      </c>
+      <c r="F627">
+        <v>1</v>
+      </c>
+      <c r="G627">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>61089</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+      <c r="F628">
+        <v>1</v>
+      </c>
+      <c r="G628">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>61090</v>
+      </c>
+      <c r="B629" t="s">
+        <v>480</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
+      </c>
+      <c r="F629">
+        <v>1</v>
+      </c>
+      <c r="G629">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -11708,37 +13661,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -11746,38 +13668,69 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/src/attr.xlsx
+++ b/src/attr.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8AFAE-FDB3-4474-82CB-FD0E987564ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1587,7 +1580,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1927,20 +1920,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
-      <selection activeCell="A628" sqref="A628:XFD650"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="S612" sqref="S612"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2100,7 +2093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2180,7 +2173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10010</v>
       </c>
@@ -2200,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10011</v>
       </c>
@@ -2220,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10012</v>
       </c>
@@ -2240,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10013</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10014</v>
       </c>
@@ -2280,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10015</v>
       </c>
@@ -2300,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10020</v>
       </c>
@@ -2314,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10021</v>
       </c>
@@ -2328,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10022</v>
       </c>
@@ -2342,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10023</v>
       </c>
@@ -2356,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10024</v>
       </c>
@@ -2370,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10025</v>
       </c>
@@ -2384,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10030</v>
       </c>
@@ -2404,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10031</v>
       </c>
@@ -2424,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10032</v>
       </c>
@@ -2444,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10033</v>
       </c>
@@ -2464,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10034</v>
       </c>
@@ -2484,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10035</v>
       </c>
@@ -2504,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10040</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10041</v>
       </c>
@@ -2532,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10042</v>
       </c>
@@ -2546,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10043</v>
       </c>
@@ -2560,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10044</v>
       </c>
@@ -2574,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10045</v>
       </c>
@@ -2588,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10050</v>
       </c>
@@ -2602,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10051</v>
       </c>
@@ -2616,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10052</v>
       </c>
@@ -2630,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10053</v>
       </c>
@@ -2644,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10054</v>
       </c>
@@ -2658,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10055</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10060</v>
       </c>
@@ -2686,7 +2679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10061</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10062</v>
       </c>
@@ -2714,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10063</v>
       </c>
@@ -2728,7 +2721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10064</v>
       </c>
@@ -2742,7 +2735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10065</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10110</v>
       </c>
@@ -2776,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10111</v>
       </c>
@@ -2796,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10112</v>
       </c>
@@ -2816,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10113</v>
       </c>
@@ -2836,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10114</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10115</v>
       </c>
@@ -2876,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10120</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10121</v>
       </c>
@@ -2904,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10122</v>
       </c>
@@ -2918,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10123</v>
       </c>
@@ -2932,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10124</v>
       </c>
@@ -2946,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10125</v>
       </c>
@@ -2960,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10130</v>
       </c>
@@ -2980,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10131</v>
       </c>
@@ -3000,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10132</v>
       </c>
@@ -3020,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10133</v>
       </c>
@@ -3040,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10134</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10135</v>
       </c>
@@ -3080,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10140</v>
       </c>
@@ -3094,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10141</v>
       </c>
@@ -3108,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10142</v>
       </c>
@@ -3122,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10143</v>
       </c>
@@ -3136,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10144</v>
       </c>
@@ -3150,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10145</v>
       </c>
@@ -3164,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10150</v>
       </c>
@@ -3178,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10151</v>
       </c>
@@ -3192,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10152</v>
       </c>
@@ -3206,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10153</v>
       </c>
@@ -3220,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10154</v>
       </c>
@@ -3234,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10155</v>
       </c>
@@ -3248,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10160</v>
       </c>
@@ -3262,7 +3255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10161</v>
       </c>
@@ -3276,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10162</v>
       </c>
@@ -3290,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10163</v>
       </c>
@@ -3304,7 +3297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10164</v>
       </c>
@@ -3318,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10165</v>
       </c>
@@ -3332,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10210</v>
       </c>
@@ -3352,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10211</v>
       </c>
@@ -3372,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10212</v>
       </c>
@@ -3392,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10213</v>
       </c>
@@ -3412,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10214</v>
       </c>
@@ -3432,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10215</v>
       </c>
@@ -3452,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10220</v>
       </c>
@@ -3466,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10221</v>
       </c>
@@ -3480,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10222</v>
       </c>
@@ -3494,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10223</v>
       </c>
@@ -3508,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10224</v>
       </c>
@@ -3522,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10225</v>
       </c>
@@ -3536,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10230</v>
       </c>
@@ -3556,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10231</v>
       </c>
@@ -3576,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10232</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10233</v>
       </c>
@@ -3616,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10234</v>
       </c>
@@ -3636,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10235</v>
       </c>
@@ -3656,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10240</v>
       </c>
@@ -3670,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10241</v>
       </c>
@@ -3684,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10242</v>
       </c>
@@ -3698,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10243</v>
       </c>
@@ -3712,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10244</v>
       </c>
@@ -3726,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10245</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10250</v>
       </c>
@@ -3754,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10251</v>
       </c>
@@ -3768,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10252</v>
       </c>
@@ -3782,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10253</v>
       </c>
@@ -3796,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10254</v>
       </c>
@@ -3810,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10255</v>
       </c>
@@ -3824,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10260</v>
       </c>
@@ -3838,7 +3831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10261</v>
       </c>
@@ -3852,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10262</v>
       </c>
@@ -3866,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10263</v>
       </c>
@@ -3880,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10264</v>
       </c>
@@ -3894,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10265</v>
       </c>
@@ -3908,7 +3901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10310</v>
       </c>
@@ -3928,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10311</v>
       </c>
@@ -3948,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10312</v>
       </c>
@@ -3968,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10313</v>
       </c>
@@ -3988,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10314</v>
       </c>
@@ -4008,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10315</v>
       </c>
@@ -4028,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10320</v>
       </c>
@@ -4042,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10321</v>
       </c>
@@ -4056,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10322</v>
       </c>
@@ -4070,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10323</v>
       </c>
@@ -4084,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10324</v>
       </c>
@@ -4098,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10325</v>
       </c>
@@ -4112,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10330</v>
       </c>
@@ -4132,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10331</v>
       </c>
@@ -4152,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10332</v>
       </c>
@@ -4172,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10333</v>
       </c>
@@ -4192,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10334</v>
       </c>
@@ -4212,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10335</v>
       </c>
@@ -4232,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>10340</v>
       </c>
@@ -4246,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10341</v>
       </c>
@@ -4260,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>10342</v>
       </c>
@@ -4274,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>10343</v>
       </c>
@@ -4288,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>10344</v>
       </c>
@@ -4302,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>10345</v>
       </c>
@@ -4316,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10350</v>
       </c>
@@ -4330,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10351</v>
       </c>
@@ -4344,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10352</v>
       </c>
@@ -4358,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>10353</v>
       </c>
@@ -4372,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10354</v>
       </c>
@@ -4386,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10355</v>
       </c>
@@ -4400,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>10360</v>
       </c>
@@ -4414,7 +4407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>10361</v>
       </c>
@@ -4428,7 +4421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10362</v>
       </c>
@@ -4442,7 +4435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>10363</v>
       </c>
@@ -4456,7 +4449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>10364</v>
       </c>
@@ -4470,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>10365</v>
       </c>
@@ -4484,7 +4477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10410</v>
       </c>
@@ -4504,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10411</v>
       </c>
@@ -4524,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>10412</v>
       </c>
@@ -4544,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10413</v>
       </c>
@@ -4564,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10414</v>
       </c>
@@ -4584,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>10415</v>
       </c>
@@ -4604,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>10420</v>
       </c>
@@ -4618,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10421</v>
       </c>
@@ -4632,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10422</v>
       </c>
@@ -4646,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10423</v>
       </c>
@@ -4660,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>10424</v>
       </c>
@@ -4674,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>10425</v>
       </c>
@@ -4688,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10430</v>
       </c>
@@ -4708,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10431</v>
       </c>
@@ -4728,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>10432</v>
       </c>
@@ -4748,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10433</v>
       </c>
@@ -4768,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10434</v>
       </c>
@@ -4788,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10435</v>
       </c>
@@ -4808,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10440</v>
       </c>
@@ -4822,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10441</v>
       </c>
@@ -4836,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10442</v>
       </c>
@@ -4850,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10443</v>
       </c>
@@ -4864,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10444</v>
       </c>
@@ -4878,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10445</v>
       </c>
@@ -4892,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10450</v>
       </c>
@@ -4906,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10451</v>
       </c>
@@ -4920,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10452</v>
       </c>
@@ -4934,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10453</v>
       </c>
@@ -4948,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10454</v>
       </c>
@@ -4962,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10455</v>
       </c>
@@ -4976,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10460</v>
       </c>
@@ -4990,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>10461</v>
       </c>
@@ -5004,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10462</v>
       </c>
@@ -5018,7 +5011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10463</v>
       </c>
@@ -5032,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>10464</v>
       </c>
@@ -5046,7 +5039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>10465</v>
       </c>
@@ -5060,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>10510</v>
       </c>
@@ -5080,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>10511</v>
       </c>
@@ -5100,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>10512</v>
       </c>
@@ -5120,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10513</v>
       </c>
@@ -5140,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>10514</v>
       </c>
@@ -5160,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>10515</v>
       </c>
@@ -5180,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>10520</v>
       </c>
@@ -5194,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>10521</v>
       </c>
@@ -5208,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10522</v>
       </c>
@@ -5222,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10523</v>
       </c>
@@ -5236,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10524</v>
       </c>
@@ -5250,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10525</v>
       </c>
@@ -5264,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>10530</v>
       </c>
@@ -5284,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10531</v>
       </c>
@@ -5304,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>10532</v>
       </c>
@@ -5324,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>10533</v>
       </c>
@@ -5344,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>10534</v>
       </c>
@@ -5364,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>10535</v>
       </c>
@@ -5384,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>10540</v>
       </c>
@@ -5398,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>10541</v>
       </c>
@@ -5412,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>10542</v>
       </c>
@@ -5426,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>10543</v>
       </c>
@@ -5440,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>10544</v>
       </c>
@@ -5454,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>10545</v>
       </c>
@@ -5468,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>10550</v>
       </c>
@@ -5482,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>10551</v>
       </c>
@@ -5496,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>10552</v>
       </c>
@@ -5510,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>10553</v>
       </c>
@@ -5524,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>10554</v>
       </c>
@@ -5538,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>10555</v>
       </c>
@@ -5552,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>10560</v>
       </c>
@@ -5566,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>10561</v>
       </c>
@@ -5580,7 +5573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>10562</v>
       </c>
@@ -5594,7 +5587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>10563</v>
       </c>
@@ -5608,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>10564</v>
       </c>
@@ -5622,7 +5615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>10565</v>
       </c>
@@ -5636,7 +5629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10610</v>
       </c>
@@ -5656,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10611</v>
       </c>
@@ -5676,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>10612</v>
       </c>
@@ -5696,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10613</v>
       </c>
@@ -5716,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10614</v>
       </c>
@@ -5736,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>10615</v>
       </c>
@@ -5756,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>10620</v>
       </c>
@@ -5770,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>10621</v>
       </c>
@@ -5784,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>10622</v>
       </c>
@@ -5798,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>10623</v>
       </c>
@@ -5812,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>10624</v>
       </c>
@@ -5826,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>10625</v>
       </c>
@@ -5840,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>10630</v>
       </c>
@@ -5860,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10631</v>
       </c>
@@ -5880,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>10632</v>
       </c>
@@ -5900,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>10633</v>
       </c>
@@ -5920,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>10634</v>
       </c>
@@ -5940,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>10635</v>
       </c>
@@ -5960,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>10640</v>
       </c>
@@ -5974,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>10641</v>
       </c>
@@ -5988,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>10642</v>
       </c>
@@ -6002,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>10643</v>
       </c>
@@ -6016,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>10644</v>
       </c>
@@ -6030,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>10645</v>
       </c>
@@ -6044,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>10650</v>
       </c>
@@ -6058,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>10651</v>
       </c>
@@ -6072,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>10652</v>
       </c>
@@ -6086,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>10653</v>
       </c>
@@ -6100,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>10654</v>
       </c>
@@ -6114,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>10655</v>
       </c>
@@ -6128,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>10660</v>
       </c>
@@ -6142,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>10661</v>
       </c>
@@ -6156,7 +6149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>10662</v>
       </c>
@@ -6170,7 +6163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>10663</v>
       </c>
@@ -6184,7 +6177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10664</v>
       </c>
@@ -6198,7 +6191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>10665</v>
       </c>
@@ -6212,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>10710</v>
       </c>
@@ -6232,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>10711</v>
       </c>
@@ -6252,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>10712</v>
       </c>
@@ -6272,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>10713</v>
       </c>
@@ -6292,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>10714</v>
       </c>
@@ -6312,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>10715</v>
       </c>
@@ -6332,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>10720</v>
       </c>
@@ -6346,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>10721</v>
       </c>
@@ -6360,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>10722</v>
       </c>
@@ -6374,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>10723</v>
       </c>
@@ -6388,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>10724</v>
       </c>
@@ -6402,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>10725</v>
       </c>
@@ -6416,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>10730</v>
       </c>
@@ -6436,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>10731</v>
       </c>
@@ -6456,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>10732</v>
       </c>
@@ -6476,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>10733</v>
       </c>
@@ -6496,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>10734</v>
       </c>
@@ -6516,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>10735</v>
       </c>
@@ -6536,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>10740</v>
       </c>
@@ -6550,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>10741</v>
       </c>
@@ -6564,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>10742</v>
       </c>
@@ -6578,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>10743</v>
       </c>
@@ -6592,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>10744</v>
       </c>
@@ -6606,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>10745</v>
       </c>
@@ -6620,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10750</v>
       </c>
@@ -6634,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10751</v>
       </c>
@@ -6648,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>10752</v>
       </c>
@@ -6662,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>10753</v>
       </c>
@@ -6676,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>10754</v>
       </c>
@@ -6690,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>10755</v>
       </c>
@@ -6704,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>10760</v>
       </c>
@@ -6718,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>10761</v>
       </c>
@@ -6732,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>10762</v>
       </c>
@@ -6746,7 +6739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>10763</v>
       </c>
@@ -6760,7 +6753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>10764</v>
       </c>
@@ -6774,7 +6767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>10765</v>
       </c>
@@ -6788,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>10810</v>
       </c>
@@ -6808,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>10811</v>
       </c>
@@ -6828,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>10812</v>
       </c>
@@ -6848,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>10813</v>
       </c>
@@ -6868,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>10814</v>
       </c>
@@ -6888,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>10815</v>
       </c>
@@ -6908,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>10820</v>
       </c>
@@ -6922,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>10821</v>
       </c>
@@ -6936,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10822</v>
       </c>
@@ -6950,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>10823</v>
       </c>
@@ -6964,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>10824</v>
       </c>
@@ -6978,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>10825</v>
       </c>
@@ -6992,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>10830</v>
       </c>
@@ -7012,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>10831</v>
       </c>
@@ -7032,7 +7025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>10832</v>
       </c>
@@ -7052,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>10833</v>
       </c>
@@ -7072,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>10834</v>
       </c>
@@ -7092,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>10835</v>
       </c>
@@ -7112,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>10840</v>
       </c>
@@ -7126,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>10841</v>
       </c>
@@ -7140,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>10842</v>
       </c>
@@ -7154,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>10843</v>
       </c>
@@ -7168,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>10844</v>
       </c>
@@ -7182,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>10845</v>
       </c>
@@ -7196,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>10850</v>
       </c>
@@ -7210,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>10851</v>
       </c>
@@ -7224,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>10852</v>
       </c>
@@ -7238,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>10853</v>
       </c>
@@ -7252,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>10854</v>
       </c>
@@ -7266,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>10855</v>
       </c>
@@ -7280,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>10860</v>
       </c>
@@ -7294,7 +7287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>10861</v>
       </c>
@@ -7308,7 +7301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>10862</v>
       </c>
@@ -7322,7 +7315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>10863</v>
       </c>
@@ -7336,7 +7329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>10864</v>
       </c>
@@ -7350,7 +7343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>10865</v>
       </c>
@@ -7364,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>10910</v>
       </c>
@@ -7384,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>10911</v>
       </c>
@@ -7404,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>10912</v>
       </c>
@@ -7424,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>10913</v>
       </c>
@@ -7444,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>10914</v>
       </c>
@@ -7464,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>10915</v>
       </c>
@@ -7484,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>10920</v>
       </c>
@@ -7498,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>10921</v>
       </c>
@@ -7512,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>10922</v>
       </c>
@@ -7526,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>10923</v>
       </c>
@@ -7540,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>10924</v>
       </c>
@@ -7554,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>10925</v>
       </c>
@@ -7568,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>10930</v>
       </c>
@@ -7588,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>10931</v>
       </c>
@@ -7608,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>10932</v>
       </c>
@@ -7628,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>10933</v>
       </c>
@@ -7648,7 +7641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>10934</v>
       </c>
@@ -7668,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>10935</v>
       </c>
@@ -7688,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>10940</v>
       </c>
@@ -7702,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>10941</v>
       </c>
@@ -7716,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>10942</v>
       </c>
@@ -7730,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>10943</v>
       </c>
@@ -7744,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>10944</v>
       </c>
@@ -7758,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>10945</v>
       </c>
@@ -7772,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>10950</v>
       </c>
@@ -7786,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>10951</v>
       </c>
@@ -7800,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>10952</v>
       </c>
@@ -7814,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>10953</v>
       </c>
@@ -7828,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>10954</v>
       </c>
@@ -7842,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>10955</v>
       </c>
@@ -7856,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>10960</v>
       </c>
@@ -7870,7 +7863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>10961</v>
       </c>
@@ -7884,7 +7877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>10962</v>
       </c>
@@ -7898,7 +7891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>10963</v>
       </c>
@@ -7912,7 +7905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>10964</v>
       </c>
@@ -7926,7 +7919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>10965</v>
       </c>
@@ -7940,7 +7933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>11010</v>
       </c>
@@ -7960,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>11011</v>
       </c>
@@ -7980,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>11012</v>
       </c>
@@ -8000,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>11013</v>
       </c>
@@ -8020,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>11014</v>
       </c>
@@ -8040,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>11015</v>
       </c>
@@ -8060,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>11020</v>
       </c>
@@ -8074,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>11021</v>
       </c>
@@ -8088,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>11022</v>
       </c>
@@ -8102,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>11023</v>
       </c>
@@ -8116,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>11024</v>
       </c>
@@ -8130,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>11025</v>
       </c>
@@ -8144,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>11030</v>
       </c>
@@ -8164,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>11031</v>
       </c>
@@ -8184,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11032</v>
       </c>
@@ -8204,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>11033</v>
       </c>
@@ -8224,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>11034</v>
       </c>
@@ -8244,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>11035</v>
       </c>
@@ -8264,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>11040</v>
       </c>
@@ -8278,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>11041</v>
       </c>
@@ -8292,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>11042</v>
       </c>
@@ -8306,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>11043</v>
       </c>
@@ -8320,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>11044</v>
       </c>
@@ -8334,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>11045</v>
       </c>
@@ -8348,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>11050</v>
       </c>
@@ -8362,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>11051</v>
       </c>
@@ -8376,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>11052</v>
       </c>
@@ -8390,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>11053</v>
       </c>
@@ -8404,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>11054</v>
       </c>
@@ -8418,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>11055</v>
       </c>
@@ -8432,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>11060</v>
       </c>
@@ -8446,7 +8439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>11061</v>
       </c>
@@ -8460,7 +8453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>11062</v>
       </c>
@@ -8474,7 +8467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>11063</v>
       </c>
@@ -8488,7 +8481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>11064</v>
       </c>
@@ -8502,7 +8495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>11065</v>
       </c>
@@ -8516,7 +8509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>11110</v>
       </c>
@@ -8536,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>11111</v>
       </c>
@@ -8556,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>11112</v>
       </c>
@@ -8576,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>11113</v>
       </c>
@@ -8596,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>11114</v>
       </c>
@@ -8616,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>11115</v>
       </c>
@@ -8636,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>11120</v>
       </c>
@@ -8650,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>11121</v>
       </c>
@@ -8664,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>11122</v>
       </c>
@@ -8678,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>11123</v>
       </c>
@@ -8692,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>11124</v>
       </c>
@@ -8706,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>11125</v>
       </c>
@@ -8720,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>11130</v>
       </c>
@@ -8740,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>11131</v>
       </c>
@@ -8760,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>11132</v>
       </c>
@@ -8780,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>11133</v>
       </c>
@@ -8800,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>11134</v>
       </c>
@@ -8820,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>11135</v>
       </c>
@@ -8840,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>11140</v>
       </c>
@@ -8854,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>11141</v>
       </c>
@@ -8868,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>11142</v>
       </c>
@@ -8882,7 +8875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>11143</v>
       </c>
@@ -8896,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>11144</v>
       </c>
@@ -8910,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>11145</v>
       </c>
@@ -8924,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>11150</v>
       </c>
@@ -8938,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>11151</v>
       </c>
@@ -8952,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>11152</v>
       </c>
@@ -8966,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>11153</v>
       </c>
@@ -8980,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>11154</v>
       </c>
@@ -8994,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>11155</v>
       </c>
@@ -9008,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>11160</v>
       </c>
@@ -9022,7 +9015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>11161</v>
       </c>
@@ -9036,7 +9029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>11162</v>
       </c>
@@ -9050,7 +9043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>11163</v>
       </c>
@@ -9064,7 +9057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>11164</v>
       </c>
@@ -9078,7 +9071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>11165</v>
       </c>
@@ -9092,7 +9085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>50001</v>
       </c>
@@ -9118,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>50002</v>
       </c>
@@ -9144,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>50003</v>
       </c>
@@ -9170,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>50004</v>
       </c>
@@ -9196,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>50005</v>
       </c>
@@ -9222,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>50006</v>
       </c>
@@ -9248,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>50007</v>
       </c>
@@ -9274,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>50008</v>
       </c>
@@ -9300,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>50009</v>
       </c>
@@ -9326,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>50010</v>
       </c>
@@ -9352,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>50011</v>
       </c>
@@ -9378,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>50012</v>
       </c>
@@ -9404,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>50013</v>
       </c>
@@ -9430,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>50014</v>
       </c>
@@ -9456,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>50015</v>
       </c>
@@ -9482,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>50016</v>
       </c>
@@ -9508,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>50017</v>
       </c>
@@ -9534,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>50018</v>
       </c>
@@ -9560,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>50019</v>
       </c>
@@ -9586,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>50020</v>
       </c>
@@ -9612,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>50021</v>
       </c>
@@ -9638,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>50022</v>
       </c>
@@ -9664,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>50023</v>
       </c>
@@ -9690,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>50024</v>
       </c>
@@ -9716,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>50025</v>
       </c>
@@ -9742,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>50026</v>
       </c>
@@ -9768,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>50027</v>
       </c>
@@ -9794,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>50028</v>
       </c>
@@ -9820,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>50029</v>
       </c>
@@ -9846,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>50030</v>
       </c>
@@ -9872,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>50031</v>
       </c>
@@ -9898,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>50032</v>
       </c>
@@ -9924,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>50033</v>
       </c>
@@ -9950,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>50034</v>
       </c>
@@ -9976,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>50035</v>
       </c>
@@ -10002,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>50036</v>
       </c>
@@ -10028,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>50037</v>
       </c>
@@ -10054,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>50038</v>
       </c>
@@ -10080,7 +10073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>50039</v>
       </c>
@@ -10106,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>50040</v>
       </c>
@@ -10132,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>50041</v>
       </c>
@@ -10158,7 +10151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>50042</v>
       </c>
@@ -10184,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>50043</v>
       </c>
@@ -10210,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>50044</v>
       </c>
@@ -10236,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>50045</v>
       </c>
@@ -10262,7 +10255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>50046</v>
       </c>
@@ -10288,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>50047</v>
       </c>
@@ -10314,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>50048</v>
       </c>
@@ -10340,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>50049</v>
       </c>
@@ -10366,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>50050</v>
       </c>
@@ -10392,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>50051</v>
       </c>
@@ -10418,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>50052</v>
       </c>
@@ -10444,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>50053</v>
       </c>
@@ -10470,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>50054</v>
       </c>
@@ -10496,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>50055</v>
       </c>
@@ -10522,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>50056</v>
       </c>
@@ -10548,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>50057</v>
       </c>
@@ -10574,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>50058</v>
       </c>
@@ -10600,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>50059</v>
       </c>
@@ -10626,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>50060</v>
       </c>
@@ -10652,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>50061</v>
       </c>
@@ -10678,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>50062</v>
       </c>
@@ -10704,7 +10697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>50063</v>
       </c>
@@ -10730,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>50064</v>
       </c>
@@ -10756,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>50065</v>
       </c>
@@ -10782,7 +10775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>50066</v>
       </c>
@@ -10808,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>50067</v>
       </c>
@@ -10834,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>50068</v>
       </c>
@@ -10860,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>50069</v>
       </c>
@@ -10886,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>50070</v>
       </c>
@@ -10912,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>50071</v>
       </c>
@@ -10938,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>50072</v>
       </c>
@@ -10964,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>50073</v>
       </c>
@@ -10990,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>50074</v>
       </c>
@@ -11016,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>50075</v>
       </c>
@@ -11042,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>50076</v>
       </c>
@@ -11068,7 +11061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>50077</v>
       </c>
@@ -11094,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>50078</v>
       </c>
@@ -11120,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>50079</v>
       </c>
@@ -11146,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>50080</v>
       </c>
@@ -11172,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>50081</v>
       </c>
@@ -11198,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>50082</v>
       </c>
@@ -11224,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>50083</v>
       </c>
@@ -11250,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>50084</v>
       </c>
@@ -11276,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>50085</v>
       </c>
@@ -11302,7 +11295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>50086</v>
       </c>
@@ -11328,7 +11321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>50087</v>
       </c>
@@ -11354,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>50088</v>
       </c>
@@ -11380,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>50089</v>
       </c>
@@ -11406,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>50090</v>
       </c>
@@ -11432,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>50091</v>
       </c>
@@ -11458,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>50092</v>
       </c>
@@ -11484,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>50093</v>
       </c>
@@ -11510,7 +11503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>50094</v>
       </c>
@@ -11536,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>50095</v>
       </c>
@@ -11562,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>50096</v>
       </c>
@@ -11588,7 +11581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>50097</v>
       </c>
@@ -11614,7 +11607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>50098</v>
       </c>
@@ -11640,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>50099</v>
       </c>
@@ -11666,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>50100</v>
       </c>
@@ -11692,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>50101</v>
       </c>
@@ -11706,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>50102</v>
       </c>
@@ -11720,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>61001</v>
       </c>
@@ -11743,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>61002</v>
       </c>
@@ -11766,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>61003</v>
       </c>
@@ -11789,7 +11782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>61004</v>
       </c>
@@ -11812,7 +11805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>61005</v>
       </c>
@@ -11835,7 +11828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>61006</v>
       </c>
@@ -11864,7 +11857,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>61007</v>
       </c>
@@ -11893,7 +11886,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>61008</v>
       </c>
@@ -11922,7 +11915,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>61009</v>
       </c>
@@ -11951,7 +11944,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>61010</v>
       </c>
@@ -11980,7 +11973,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>61011</v>
       </c>
@@ -12009,7 +12002,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>61012</v>
       </c>
@@ -12038,7 +12031,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>61013</v>
       </c>
@@ -12067,7 +12060,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>61014</v>
       </c>
@@ -12096,7 +12089,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>61015</v>
       </c>
@@ -12125,7 +12118,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>61016</v>
       </c>
@@ -12154,7 +12147,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>61017</v>
       </c>
@@ -12183,7 +12176,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>61018</v>
       </c>
@@ -12212,7 +12205,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>61019</v>
       </c>
@@ -12241,7 +12234,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>61020</v>
       </c>
@@ -12270,7 +12263,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>61021</v>
       </c>
@@ -12299,7 +12292,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>61022</v>
       </c>
@@ -12328,7 +12321,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>61023</v>
       </c>
@@ -12357,7 +12350,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>61024</v>
       </c>
@@ -12386,7 +12379,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>61025</v>
       </c>
@@ -12415,7 +12408,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>61026</v>
       </c>
@@ -12444,7 +12437,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>61027</v>
       </c>
@@ -12473,7 +12466,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>61028</v>
       </c>
@@ -12502,7 +12495,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>61029</v>
       </c>
@@ -12531,7 +12524,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>61030</v>
       </c>
@@ -12560,7 +12553,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>61031</v>
       </c>
@@ -12589,7 +12582,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>61032</v>
       </c>
@@ -12618,7 +12611,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>61033</v>
       </c>
@@ -12647,7 +12640,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>61034</v>
       </c>
@@ -12676,7 +12669,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>61035</v>
       </c>
@@ -12705,7 +12698,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>61036</v>
       </c>
@@ -12734,7 +12727,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>61037</v>
       </c>
@@ -12751,7 +12744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>61038</v>
       </c>
@@ -12768,7 +12761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>61039</v>
       </c>
@@ -12785,7 +12778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>61040</v>
       </c>
@@ -12802,7 +12795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>61041</v>
       </c>
@@ -12819,7 +12812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>61042</v>
       </c>
@@ -12836,7 +12829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>61043</v>
       </c>
@@ -12853,7 +12846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>61044</v>
       </c>
@@ -12870,7 +12863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>61045</v>
       </c>
@@ -12887,7 +12880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>61046</v>
       </c>
@@ -12904,7 +12897,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>61047</v>
       </c>
@@ -12921,7 +12914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>61048</v>
       </c>
@@ -12938,7 +12931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>61049</v>
       </c>
@@ -12955,7 +12948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>61050</v>
       </c>
@@ -12972,7 +12965,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>61051</v>
       </c>
@@ -12989,7 +12982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>61052</v>
       </c>
@@ -13006,7 +12999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>61053</v>
       </c>
@@ -13023,7 +13016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>61054</v>
       </c>
@@ -13040,7 +13033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>61055</v>
       </c>
@@ -13057,7 +13050,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>61056</v>
       </c>
@@ -13074,7 +13067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>61057</v>
       </c>
@@ -13091,7 +13084,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>61058</v>
       </c>
@@ -13108,7 +13101,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>61059</v>
       </c>
@@ -13125,7 +13118,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>61060</v>
       </c>
@@ -13142,7 +13135,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>61061</v>
       </c>
@@ -13159,7 +13152,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>61062</v>
       </c>
@@ -13176,7 +13169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>61063</v>
       </c>
@@ -13193,7 +13186,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>61064</v>
       </c>
@@ -13210,7 +13203,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>61065</v>
       </c>
@@ -13227,7 +13220,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>61066</v>
       </c>
@@ -13244,7 +13237,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>61067</v>
       </c>
@@ -13261,7 +13254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>61068</v>
       </c>
@@ -13278,7 +13271,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>61069</v>
       </c>
@@ -13295,7 +13288,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>61070</v>
       </c>
@@ -13312,7 +13305,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>61071</v>
       </c>
@@ -13329,7 +13322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>61072</v>
       </c>
@@ -13346,7 +13339,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>61073</v>
       </c>
@@ -13363,7 +13356,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>61074</v>
       </c>
@@ -13380,7 +13373,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>61075</v>
       </c>
@@ -13397,7 +13390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>61076</v>
       </c>
@@ -13414,7 +13407,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>61077</v>
       </c>
@@ -13431,7 +13424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>61078</v>
       </c>
@@ -13448,7 +13441,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>61079</v>
       </c>
@@ -13465,7 +13458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>61080</v>
       </c>
@@ -13482,7 +13475,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>61081</v>
       </c>
@@ -13499,7 +13492,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>61082</v>
       </c>
@@ -13516,7 +13509,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>61083</v>
       </c>
@@ -13533,7 +13526,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>61084</v>
       </c>
@@ -13550,7 +13543,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>61085</v>
       </c>
@@ -13567,7 +13560,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>61086</v>
       </c>
@@ -13584,7 +13577,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>61087</v>
       </c>
@@ -13601,7 +13594,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>61088</v>
       </c>
@@ -13618,7 +13611,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>61089</v>
       </c>
@@ -13635,7 +13628,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>61090</v>
       </c>

--- a/src/attr.xlsx
+++ b/src/attr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8AFAE-FDB3-4474-82CB-FD0E987564ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD7F1C-C17E-40BC-AA5B-6713A7A55027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1923,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="S612" sqref="S612"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="J447" sqref="J447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9099,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F436">
         <v>1</v>
@@ -9125,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="E437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F437">
         <v>1</v>
@@ -9151,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="E438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F438">
         <v>1</v>
@@ -9177,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="E439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F439">
         <v>1</v>
@@ -9203,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="E440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F440">
         <v>1</v>
@@ -9223,7 +9231,7 @@
         <v>489</v>
       </c>
       <c r="C441" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D441" s="2">
         <v>1</v>
@@ -9249,13 +9257,13 @@
         <v>485</v>
       </c>
       <c r="C442">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D442">
         <v>1</v>
       </c>
       <c r="E442">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F442">
         <v>1</v>
@@ -9275,13 +9283,13 @@
         <v>479</v>
       </c>
       <c r="C443">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D443">
         <v>1</v>
       </c>
       <c r="E443">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F443">
         <v>1</v>
@@ -9301,13 +9309,13 @@
         <v>480</v>
       </c>
       <c r="C444">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D444">
         <v>1</v>
       </c>
       <c r="E444">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F444">
         <v>1</v>
@@ -9327,13 +9335,13 @@
         <v>496</v>
       </c>
       <c r="C445">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D445">
         <v>1</v>
       </c>
       <c r="E445">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F445">
         <v>1</v>
@@ -9353,7 +9361,7 @@
         <v>486</v>
       </c>
       <c r="C446" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D446" s="2">
         <v>1</v>
@@ -9379,13 +9387,13 @@
         <v>497</v>
       </c>
       <c r="C447">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D447">
         <v>1</v>
       </c>
       <c r="E447">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F447">
         <v>1</v>
@@ -9405,13 +9413,13 @@
         <v>492</v>
       </c>
       <c r="C448">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F448">
         <v>1</v>
@@ -9431,13 +9439,13 @@
         <v>476</v>
       </c>
       <c r="C449">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D449">
         <v>1</v>
       </c>
       <c r="E449">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F449">
         <v>1</v>
@@ -9457,13 +9465,13 @@
         <v>495</v>
       </c>
       <c r="C450">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D450">
         <v>1</v>
       </c>
       <c r="E450">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F450">
         <v>1</v>
@@ -13653,11 +13661,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13667,17 +13674,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13688,11 +13693,14 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -13704,13 +13712,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -13722,7 +13730,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/attr.xlsx
+++ b/src/attr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD7F1C-C17E-40BC-AA5B-6713A7A55027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA138945-097D-4209-AFC2-17982929107A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9101,7 +9101,7 @@
         <v>484</v>
       </c>
       <c r="C436">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -9127,13 +9127,13 @@
         <v>493</v>
       </c>
       <c r="C437">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D437">
         <v>1</v>
       </c>
       <c r="E437">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F437">
         <v>1</v>
@@ -9153,13 +9153,13 @@
         <v>481</v>
       </c>
       <c r="C438">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D438">
         <v>1</v>
       </c>
       <c r="E438">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F438">
         <v>1</v>
@@ -9179,13 +9179,13 @@
         <v>494</v>
       </c>
       <c r="C439">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D439">
         <v>1</v>
       </c>
       <c r="E439">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F439">
         <v>1</v>
@@ -9205,7 +9205,7 @@
         <v>495</v>
       </c>
       <c r="C440">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -9231,13 +9231,13 @@
         <v>489</v>
       </c>
       <c r="C441" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D441" s="2">
         <v>1</v>
       </c>
       <c r="E441" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F441" s="2">
         <v>1</v>
@@ -9257,13 +9257,13 @@
         <v>485</v>
       </c>
       <c r="C442">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D442">
         <v>1</v>
       </c>
       <c r="E442">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F442">
         <v>1</v>
@@ -9283,13 +9283,13 @@
         <v>479</v>
       </c>
       <c r="C443">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D443">
         <v>1</v>
       </c>
       <c r="E443">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F443">
         <v>1</v>
@@ -9309,13 +9309,13 @@
         <v>480</v>
       </c>
       <c r="C444">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D444">
         <v>1</v>
       </c>
       <c r="E444">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F444">
         <v>1</v>
@@ -9335,13 +9335,13 @@
         <v>496</v>
       </c>
       <c r="C445">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D445">
         <v>1</v>
       </c>
       <c r="E445">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F445">
         <v>1</v>
@@ -9361,13 +9361,13 @@
         <v>486</v>
       </c>
       <c r="C446" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D446" s="2">
         <v>1</v>
       </c>
       <c r="E446" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F446" s="2">
         <v>1</v>
@@ -9387,13 +9387,13 @@
         <v>497</v>
       </c>
       <c r="C447">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D447">
         <v>1</v>
       </c>
       <c r="E447">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F447">
         <v>1</v>
@@ -9413,13 +9413,13 @@
         <v>492</v>
       </c>
       <c r="C448">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F448">
         <v>1</v>
@@ -9439,13 +9439,13 @@
         <v>476</v>
       </c>
       <c r="C449">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D449">
         <v>1</v>
       </c>
       <c r="E449">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F449">
         <v>1</v>
@@ -9465,13 +9465,13 @@
         <v>495</v>
       </c>
       <c r="C450">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D450">
         <v>1</v>
       </c>
       <c r="E450">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F450">
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="E451" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F451" s="2">
         <v>1</v>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="E452">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F452">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="E453">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F453">
         <v>1</v>
@@ -9575,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="E454">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F454">
         <v>1</v>
@@ -9601,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="E455">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F455">
         <v>1</v>
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="E456" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F456" s="2">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="E457">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F457">
         <v>1</v>
@@ -11758,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="E539">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F539">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="E540">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F540">
         <v>1</v>

--- a/src/attr.xlsx
+++ b/src/attr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA138945-097D-4209-AFC2-17982929107A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB68BEF2-81E5-4EEE-A3FC-7A1427014051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="J447" sqref="J447"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="I486" sqref="I486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11735,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="E538">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F538">
         <v>1</v>
@@ -11804,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="E541">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F541">
         <v>1</v>
@@ -11827,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="E542">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F542">
         <v>1</v>
@@ -11850,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="E543">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F543">
         <v>1</v>
@@ -11873,13 +11873,13 @@
         <v>485</v>
       </c>
       <c r="C544">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D544">
         <v>1</v>
       </c>
       <c r="E544">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F544">
         <v>1</v>
@@ -11902,13 +11902,13 @@
         <v>479</v>
       </c>
       <c r="C545">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="D545">
         <v>1</v>
       </c>
       <c r="E545">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F545">
         <v>1</v>
@@ -11931,13 +11931,13 @@
         <v>480</v>
       </c>
       <c r="C546">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D546">
         <v>1</v>
       </c>
       <c r="E546">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F546">
         <v>1</v>
@@ -11960,13 +11960,13 @@
         <v>484</v>
       </c>
       <c r="C547">
-        <v>860</v>
+        <v>660</v>
       </c>
       <c r="D547">
         <v>1</v>
       </c>
       <c r="E547">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="F547">
         <v>1</v>
@@ -11989,13 +11989,13 @@
         <v>475</v>
       </c>
       <c r="C548">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D548">
         <v>1</v>
       </c>
       <c r="E548">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F548">
         <v>1</v>
@@ -12018,13 +12018,13 @@
         <v>481</v>
       </c>
       <c r="C549">
-        <v>1200</v>
+        <v>820</v>
       </c>
       <c r="D549">
         <v>1</v>
       </c>
       <c r="E549">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="F549">
         <v>1</v>
@@ -12047,13 +12047,13 @@
         <v>476</v>
       </c>
       <c r="C550">
-        <v>1400</v>
+        <v>860</v>
       </c>
       <c r="D550">
         <v>1</v>
       </c>
       <c r="E550">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="F550">
         <v>1</v>
@@ -12076,13 +12076,13 @@
         <v>477</v>
       </c>
       <c r="C551">
-        <v>1600</v>
+        <v>880</v>
       </c>
       <c r="D551">
         <v>1</v>
       </c>
       <c r="E551">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F551">
         <v>1</v>
@@ -12105,13 +12105,13 @@
         <v>478</v>
       </c>
       <c r="C552">
-        <v>1800</v>
+        <v>930</v>
       </c>
       <c r="D552">
         <v>1</v>
       </c>
       <c r="E552">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="F552">
         <v>1</v>
@@ -12134,13 +12134,13 @@
         <v>485</v>
       </c>
       <c r="C553">
-        <v>2000</v>
+        <v>960</v>
       </c>
       <c r="D553">
         <v>1</v>
       </c>
       <c r="E553">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="F553">
         <v>1</v>
@@ -12163,13 +12163,13 @@
         <v>479</v>
       </c>
       <c r="C554">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="D554">
         <v>1</v>
       </c>
       <c r="E554">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="F554">
         <v>1</v>
@@ -12192,13 +12192,13 @@
         <v>480</v>
       </c>
       <c r="C555">
-        <v>2800</v>
+        <v>1020</v>
       </c>
       <c r="D555">
         <v>1</v>
       </c>
       <c r="E555">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="F555">
         <v>1</v>
@@ -12221,13 +12221,13 @@
         <v>484</v>
       </c>
       <c r="C556">
-        <v>3200</v>
+        <v>1080</v>
       </c>
       <c r="D556">
         <v>1</v>
       </c>
       <c r="E556">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="F556">
         <v>1</v>
@@ -12250,13 +12250,13 @@
         <v>475</v>
       </c>
       <c r="C557">
-        <v>3600</v>
+        <v>1100</v>
       </c>
       <c r="D557">
         <v>1</v>
       </c>
       <c r="E557">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="F557">
         <v>1</v>
@@ -12279,13 +12279,13 @@
         <v>481</v>
       </c>
       <c r="C558">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D558">
         <v>1</v>
       </c>
       <c r="E558">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="F558">
         <v>1</v>
@@ -12308,13 +12308,13 @@
         <v>476</v>
       </c>
       <c r="C559">
-        <v>4500</v>
+        <v>1300</v>
       </c>
       <c r="D559">
         <v>1</v>
       </c>
       <c r="E559">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="F559">
         <v>1</v>
@@ -12337,13 +12337,13 @@
         <v>477</v>
       </c>
       <c r="C560">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="D560">
         <v>1</v>
       </c>
       <c r="E560">
-        <v>620</v>
+        <v>360</v>
       </c>
       <c r="F560">
         <v>1</v>
@@ -12366,13 +12366,13 @@
         <v>478</v>
       </c>
       <c r="C561">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="D561">
         <v>1</v>
       </c>
       <c r="E561">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="F561">
         <v>1</v>
@@ -12395,13 +12395,13 @@
         <v>485</v>
       </c>
       <c r="C562">
-        <v>5600</v>
+        <v>1700</v>
       </c>
       <c r="D562">
         <v>1</v>
       </c>
       <c r="E562">
-        <v>780</v>
+        <v>400</v>
       </c>
       <c r="F562">
         <v>1</v>
@@ -12424,13 +12424,13 @@
         <v>479</v>
       </c>
       <c r="C563">
-        <v>5900</v>
+        <v>1800</v>
       </c>
       <c r="D563">
         <v>1</v>
       </c>
       <c r="E563">
-        <v>860</v>
+        <v>450</v>
       </c>
       <c r="F563">
         <v>1</v>
@@ -12453,13 +12453,13 @@
         <v>480</v>
       </c>
       <c r="C564">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D564">
         <v>1</v>
       </c>
       <c r="E564">
-        <v>940</v>
+        <v>500</v>
       </c>
       <c r="F564">
         <v>1</v>
@@ -12482,13 +12482,13 @@
         <v>484</v>
       </c>
       <c r="C565">
-        <v>7000</v>
+        <v>2100</v>
       </c>
       <c r="D565">
         <v>1</v>
       </c>
       <c r="E565">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="F565">
         <v>1</v>
@@ -12511,13 +12511,13 @@
         <v>475</v>
       </c>
       <c r="C566">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="D566">
         <v>1</v>
       </c>
       <c r="E566">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F566">
         <v>1</v>
@@ -12540,13 +12540,13 @@
         <v>481</v>
       </c>
       <c r="C567">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="D567">
         <v>1</v>
       </c>
       <c r="E567">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="F567">
         <v>1</v>
@@ -12569,13 +12569,13 @@
         <v>476</v>
       </c>
       <c r="C568">
-        <v>10000</v>
+        <v>2800</v>
       </c>
       <c r="D568">
         <v>1</v>
       </c>
       <c r="E568">
-        <v>1300</v>
+        <v>770</v>
       </c>
       <c r="F568">
         <v>1</v>
@@ -12598,13 +12598,13 @@
         <v>477</v>
       </c>
       <c r="C569">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="D569">
         <v>1</v>
       </c>
       <c r="E569">
-        <v>1400</v>
+        <v>780</v>
       </c>
       <c r="F569">
         <v>1</v>
@@ -12627,13 +12627,13 @@
         <v>478</v>
       </c>
       <c r="C570">
-        <v>12000</v>
+        <v>3300</v>
       </c>
       <c r="D570">
         <v>1</v>
       </c>
       <c r="E570">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F570">
         <v>1</v>
@@ -12656,13 +12656,13 @@
         <v>485</v>
       </c>
       <c r="C571">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="D571">
         <v>1</v>
       </c>
       <c r="E571">
-        <v>1600</v>
+        <v>830</v>
       </c>
       <c r="F571">
         <v>1</v>
@@ -12685,13 +12685,13 @@
         <v>479</v>
       </c>
       <c r="C572">
-        <v>14000</v>
+        <v>3800</v>
       </c>
       <c r="D572">
         <v>1</v>
       </c>
       <c r="E572">
-        <v>1700</v>
+        <v>850</v>
       </c>
       <c r="F572">
         <v>1</v>
@@ -12714,13 +12714,13 @@
         <v>480</v>
       </c>
       <c r="C573">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="D573">
         <v>1</v>
       </c>
       <c r="E573">
-        <v>1800</v>
+        <v>860</v>
       </c>
       <c r="F573">
         <v>1</v>
@@ -12742,8 +12742,14 @@
       <c r="B574" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="C574">
+        <v>4100</v>
+      </c>
       <c r="D574">
         <v>1</v>
+      </c>
+      <c r="E574">
+        <v>880</v>
       </c>
       <c r="F574">
         <v>1</v>
@@ -12759,8 +12765,14 @@
       <c r="B575" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="C575">
+        <v>4500</v>
+      </c>
       <c r="D575">
         <v>1</v>
+      </c>
+      <c r="E575">
+        <v>890</v>
       </c>
       <c r="F575">
         <v>1</v>
@@ -12776,8 +12788,14 @@
       <c r="B576" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="C576">
+        <v>4800</v>
+      </c>
       <c r="D576">
         <v>1</v>
+      </c>
+      <c r="E576">
+        <v>900</v>
       </c>
       <c r="F576">
         <v>1</v>
@@ -12793,8 +12811,14 @@
       <c r="B577" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="C577">
+        <v>5000</v>
+      </c>
       <c r="D577">
         <v>1</v>
+      </c>
+      <c r="E577">
+        <v>960</v>
       </c>
       <c r="F577">
         <v>1</v>
@@ -12810,8 +12834,14 @@
       <c r="B578" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="C578">
+        <v>5200</v>
+      </c>
       <c r="D578">
         <v>1</v>
+      </c>
+      <c r="E578">
+        <v>990</v>
       </c>
       <c r="F578">
         <v>1</v>
@@ -12827,8 +12857,14 @@
       <c r="B579" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C579">
+        <v>5600</v>
+      </c>
       <c r="D579">
         <v>1</v>
+      </c>
+      <c r="E579">
+        <v>1000</v>
       </c>
       <c r="F579">
         <v>1</v>
@@ -12844,8 +12880,14 @@
       <c r="B580" t="s">
         <v>485</v>
       </c>
+      <c r="C580">
+        <v>5800</v>
+      </c>
       <c r="D580">
         <v>1</v>
+      </c>
+      <c r="E580">
+        <v>1020</v>
       </c>
       <c r="F580">
         <v>1</v>
@@ -12861,8 +12903,14 @@
       <c r="B581" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="C581">
+        <v>6000</v>
+      </c>
       <c r="D581">
         <v>1</v>
+      </c>
+      <c r="E581">
+        <v>1080</v>
       </c>
       <c r="F581">
         <v>1</v>
@@ -12878,8 +12926,14 @@
       <c r="B582" t="s">
         <v>480</v>
       </c>
+      <c r="C582">
+        <v>6600</v>
+      </c>
       <c r="D582">
         <v>1</v>
+      </c>
+      <c r="E582">
+        <v>1090</v>
       </c>
       <c r="F582">
         <v>1</v>
@@ -12895,8 +12949,14 @@
       <c r="B583" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="C583">
+        <v>7000</v>
+      </c>
       <c r="D583">
         <v>1</v>
+      </c>
+      <c r="E583">
+        <v>1100</v>
       </c>
       <c r="F583">
         <v>1</v>
@@ -12912,8 +12972,14 @@
       <c r="B584" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="C584">
+        <v>7200</v>
+      </c>
       <c r="D584">
         <v>1</v>
+      </c>
+      <c r="E584">
+        <v>1233</v>
       </c>
       <c r="F584">
         <v>1</v>
@@ -12929,8 +12995,14 @@
       <c r="B585" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="C585">
+        <v>7500</v>
+      </c>
       <c r="D585">
         <v>1</v>
+      </c>
+      <c r="E585">
+        <v>1333</v>
       </c>
       <c r="F585">
         <v>1</v>
@@ -12946,8 +13018,14 @@
       <c r="B586" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="C586">
+        <v>7600</v>
+      </c>
       <c r="D586">
         <v>1</v>
+      </c>
+      <c r="E586">
+        <v>1363</v>
       </c>
       <c r="F586">
         <v>1</v>
@@ -12963,8 +13041,14 @@
       <c r="B587" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="C587">
+        <v>7700</v>
+      </c>
       <c r="D587">
         <v>1</v>
+      </c>
+      <c r="E587">
+        <v>1383</v>
       </c>
       <c r="F587">
         <v>1</v>
@@ -12980,8 +13064,14 @@
       <c r="B588" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C588">
+        <v>8000</v>
+      </c>
       <c r="D588">
         <v>1</v>
+      </c>
+      <c r="E588">
+        <v>1500</v>
       </c>
       <c r="F588">
         <v>1</v>
@@ -12997,8 +13087,14 @@
       <c r="B589" t="s">
         <v>485</v>
       </c>
+      <c r="C589">
+        <v>8300</v>
+      </c>
       <c r="D589">
         <v>1</v>
+      </c>
+      <c r="E589">
+        <v>1600</v>
       </c>
       <c r="F589">
         <v>1</v>
@@ -13014,8 +13110,14 @@
       <c r="B590" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="C590">
+        <v>8600</v>
+      </c>
       <c r="D590">
         <v>1</v>
+      </c>
+      <c r="E590">
+        <v>1700</v>
       </c>
       <c r="F590">
         <v>1</v>
@@ -13031,8 +13133,14 @@
       <c r="B591" t="s">
         <v>480</v>
       </c>
+      <c r="C591">
+        <v>8800</v>
+      </c>
       <c r="D591">
         <v>1</v>
+      </c>
+      <c r="E591">
+        <v>1770</v>
       </c>
       <c r="F591">
         <v>1</v>
@@ -13048,8 +13156,14 @@
       <c r="B592" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="C592">
+        <v>9000</v>
+      </c>
       <c r="D592">
         <v>1</v>
+      </c>
+      <c r="E592">
+        <v>1800</v>
       </c>
       <c r="F592">
         <v>1</v>
@@ -13065,8 +13179,14 @@
       <c r="B593" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="C593">
+        <v>9230</v>
+      </c>
       <c r="D593">
         <v>1</v>
+      </c>
+      <c r="E593">
+        <v>1820</v>
       </c>
       <c r="F593">
         <v>1</v>
@@ -13082,8 +13202,14 @@
       <c r="B594" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="C594">
+        <v>9360</v>
+      </c>
       <c r="D594">
         <v>1</v>
+      </c>
+      <c r="E594">
+        <v>1830</v>
       </c>
       <c r="F594">
         <v>1</v>
@@ -13099,8 +13225,14 @@
       <c r="B595" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="C595">
+        <v>9490</v>
+      </c>
       <c r="D595">
         <v>1</v>
+      </c>
+      <c r="E595">
+        <v>1850</v>
       </c>
       <c r="F595">
         <v>1</v>
@@ -13116,8 +13248,14 @@
       <c r="B596" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="C596">
+        <v>9620</v>
+      </c>
       <c r="D596">
         <v>1</v>
+      </c>
+      <c r="E596">
+        <v>1890</v>
       </c>
       <c r="F596">
         <v>1</v>
@@ -13133,8 +13271,14 @@
       <c r="B597" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C597">
+        <v>9750</v>
+      </c>
       <c r="D597">
         <v>1</v>
+      </c>
+      <c r="E597">
+        <v>1920</v>
       </c>
       <c r="F597">
         <v>1</v>
@@ -13150,8 +13294,14 @@
       <c r="B598" t="s">
         <v>485</v>
       </c>
+      <c r="C598">
+        <v>9880</v>
+      </c>
       <c r="D598">
         <v>1</v>
+      </c>
+      <c r="E598">
+        <v>1950</v>
       </c>
       <c r="F598">
         <v>1</v>
@@ -13167,8 +13317,14 @@
       <c r="B599" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="C599">
+        <v>10010</v>
+      </c>
       <c r="D599">
         <v>1</v>
+      </c>
+      <c r="E599">
+        <v>2000</v>
       </c>
       <c r="F599">
         <v>1</v>
@@ -13184,8 +13340,14 @@
       <c r="B600" t="s">
         <v>480</v>
       </c>
+      <c r="C600">
+        <v>10140</v>
+      </c>
       <c r="D600">
         <v>1</v>
+      </c>
+      <c r="E600">
+        <v>2010</v>
       </c>
       <c r="F600">
         <v>1</v>
@@ -13201,8 +13363,14 @@
       <c r="B601" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="C601">
+        <v>10270</v>
+      </c>
       <c r="D601">
         <v>1</v>
+      </c>
+      <c r="E601">
+        <v>2020</v>
       </c>
       <c r="F601">
         <v>1</v>
@@ -13218,8 +13386,14 @@
       <c r="B602" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="C602">
+        <v>10400</v>
+      </c>
       <c r="D602">
         <v>1</v>
+      </c>
+      <c r="E602">
+        <v>2030</v>
       </c>
       <c r="F602">
         <v>1</v>
@@ -13235,8 +13409,14 @@
       <c r="B603" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="C603">
+        <v>10530</v>
+      </c>
       <c r="D603">
         <v>1</v>
+      </c>
+      <c r="E603">
+        <v>2050</v>
       </c>
       <c r="F603">
         <v>1</v>
@@ -13252,8 +13432,14 @@
       <c r="B604" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="C604">
+        <v>10660</v>
+      </c>
       <c r="D604">
         <v>1</v>
+      </c>
+      <c r="E604">
+        <v>2060</v>
       </c>
       <c r="F604">
         <v>1</v>
@@ -13269,8 +13455,14 @@
       <c r="B605" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="C605">
+        <v>10790</v>
+      </c>
       <c r="D605">
         <v>1</v>
+      </c>
+      <c r="E605">
+        <v>2070</v>
       </c>
       <c r="F605">
         <v>1</v>
@@ -13286,8 +13478,14 @@
       <c r="B606" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C606">
+        <v>10920</v>
+      </c>
       <c r="D606">
         <v>1</v>
+      </c>
+      <c r="E606">
+        <v>2080</v>
       </c>
       <c r="F606">
         <v>1</v>
@@ -13303,8 +13501,14 @@
       <c r="B607" t="s">
         <v>485</v>
       </c>
+      <c r="C607">
+        <v>11050</v>
+      </c>
       <c r="D607">
         <v>1</v>
+      </c>
+      <c r="E607">
+        <v>2090</v>
       </c>
       <c r="F607">
         <v>1</v>
@@ -13320,8 +13524,14 @@
       <c r="B608" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="C608">
+        <v>11180</v>
+      </c>
       <c r="D608">
         <v>1</v>
+      </c>
+      <c r="E608">
+        <v>2100</v>
       </c>
       <c r="F608">
         <v>1</v>
@@ -13337,8 +13547,14 @@
       <c r="B609" t="s">
         <v>480</v>
       </c>
+      <c r="C609">
+        <v>11310</v>
+      </c>
       <c r="D609">
         <v>1</v>
+      </c>
+      <c r="E609">
+        <v>2110</v>
       </c>
       <c r="F609">
         <v>1</v>
@@ -13354,8 +13570,14 @@
       <c r="B610" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="C610">
+        <v>11440</v>
+      </c>
       <c r="D610">
         <v>1</v>
+      </c>
+      <c r="E610">
+        <v>2200</v>
       </c>
       <c r="F610">
         <v>1</v>
@@ -13371,8 +13593,14 @@
       <c r="B611" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="C611">
+        <v>11570</v>
+      </c>
       <c r="D611">
         <v>1</v>
+      </c>
+      <c r="E611">
+        <v>2290</v>
       </c>
       <c r="F611">
         <v>1</v>
@@ -13388,8 +13616,14 @@
       <c r="B612" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="C612">
+        <v>11700</v>
+      </c>
       <c r="D612">
         <v>1</v>
+      </c>
+      <c r="E612">
+        <v>2380</v>
       </c>
       <c r="F612">
         <v>1</v>
@@ -13405,8 +13639,14 @@
       <c r="B613" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="C613">
+        <v>11830</v>
+      </c>
       <c r="D613">
         <v>1</v>
+      </c>
+      <c r="E613">
+        <v>2470</v>
       </c>
       <c r="F613">
         <v>1</v>
@@ -13422,8 +13662,14 @@
       <c r="B614" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="C614">
+        <v>11960</v>
+      </c>
       <c r="D614">
         <v>1</v>
+      </c>
+      <c r="E614">
+        <v>2560</v>
       </c>
       <c r="F614">
         <v>1</v>
@@ -13439,8 +13685,14 @@
       <c r="B615" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C615">
+        <v>12090</v>
+      </c>
       <c r="D615">
         <v>1</v>
+      </c>
+      <c r="E615">
+        <v>2650</v>
       </c>
       <c r="F615">
         <v>1</v>
@@ -13456,8 +13708,14 @@
       <c r="B616" t="s">
         <v>485</v>
       </c>
+      <c r="C616">
+        <v>12220</v>
+      </c>
       <c r="D616">
         <v>1</v>
+      </c>
+      <c r="E616">
+        <v>2740</v>
       </c>
       <c r="F616">
         <v>1</v>
@@ -13473,8 +13731,14 @@
       <c r="B617" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="C617">
+        <v>12350</v>
+      </c>
       <c r="D617">
         <v>1</v>
+      </c>
+      <c r="E617">
+        <v>2830</v>
       </c>
       <c r="F617">
         <v>1</v>
@@ -13490,8 +13754,14 @@
       <c r="B618" t="s">
         <v>480</v>
       </c>
+      <c r="C618">
+        <v>12480</v>
+      </c>
       <c r="D618">
         <v>1</v>
+      </c>
+      <c r="E618">
+        <v>2920</v>
       </c>
       <c r="F618">
         <v>1</v>
@@ -13507,8 +13777,14 @@
       <c r="B619" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="C619">
+        <v>12610</v>
+      </c>
       <c r="D619">
         <v>1</v>
+      </c>
+      <c r="E619">
+        <v>3010</v>
       </c>
       <c r="F619">
         <v>1</v>
@@ -13524,8 +13800,14 @@
       <c r="B620" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="C620">
+        <v>12740</v>
+      </c>
       <c r="D620">
         <v>1</v>
+      </c>
+      <c r="E620">
+        <v>3100</v>
       </c>
       <c r="F620">
         <v>1</v>
@@ -13541,8 +13823,14 @@
       <c r="B621" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="C621">
+        <v>12870</v>
+      </c>
       <c r="D621">
         <v>1</v>
+      </c>
+      <c r="E621">
+        <v>3190</v>
       </c>
       <c r="F621">
         <v>1</v>
@@ -13558,8 +13846,14 @@
       <c r="B622" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="C622">
+        <v>13000</v>
+      </c>
       <c r="D622">
         <v>1</v>
+      </c>
+      <c r="E622">
+        <v>3280</v>
       </c>
       <c r="F622">
         <v>1</v>
@@ -13575,8 +13869,14 @@
       <c r="B623" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="C623">
+        <v>13130</v>
+      </c>
       <c r="D623">
         <v>1</v>
+      </c>
+      <c r="E623">
+        <v>3370</v>
       </c>
       <c r="F623">
         <v>1</v>
@@ -13592,8 +13892,14 @@
       <c r="B624" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="C624">
+        <v>13260</v>
+      </c>
       <c r="D624">
         <v>1</v>
+      </c>
+      <c r="E624">
+        <v>3460</v>
       </c>
       <c r="F624">
         <v>1</v>
@@ -13609,8 +13915,14 @@
       <c r="B625" t="s">
         <v>485</v>
       </c>
+      <c r="C625">
+        <v>13390</v>
+      </c>
       <c r="D625">
         <v>1</v>
+      </c>
+      <c r="E625">
+        <v>3550</v>
       </c>
       <c r="F625">
         <v>1</v>
@@ -13626,8 +13938,14 @@
       <c r="B626" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="C626">
+        <v>13520</v>
+      </c>
       <c r="D626">
         <v>1</v>
+      </c>
+      <c r="E626">
+        <v>3640</v>
       </c>
       <c r="F626">
         <v>1</v>
@@ -13643,8 +13961,14 @@
       <c r="B627" t="s">
         <v>480</v>
       </c>
+      <c r="C627">
+        <v>13650</v>
+      </c>
       <c r="D627">
         <v>1</v>
+      </c>
+      <c r="E627">
+        <v>4000</v>
       </c>
       <c r="F627">
         <v>1</v>
@@ -13661,19 +13985,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -13681,56 +14019,42 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>